--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\專案資料\ISTI縣市資料導航系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\CityNavigation\ISTI_CityNavigation\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07D12BD-D736-4397-81DE-8D1029346CFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEAB9BB-36FE-4809-ACF5-2E92E55928C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="852">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2908,7 +2908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,15 +2958,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2990,6 +2981,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3303,7 +3303,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3313,10 +3313,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="str">
@@ -3538,37 +3538,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3662,10 +3662,10 @@
       <c r="A10" t="s">
         <v>351</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>320</v>
       </c>
@@ -3674,13 +3674,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>349</v>
       </c>
       <c r="B11" t="s">
         <v>348</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>342</v>
       </c>
@@ -3689,13 +3689,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>346</v>
       </c>
       <c r="B12" t="s">
         <v>345</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>329</v>
       </c>
@@ -3704,13 +3704,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>344</v>
       </c>
       <c r="B13" t="s">
         <v>343</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>342</v>
       </c>
@@ -3852,17 +3852,17 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3892,37 +3892,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4016,10 +4016,10 @@
       <c r="A10" t="s">
         <v>392</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>320</v>
       </c>
@@ -4028,13 +4028,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>388</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>372</v>
       </c>
@@ -4043,13 +4043,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>386</v>
       </c>
       <c r="B12" t="s">
         <v>385</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>342</v>
       </c>
@@ -4058,13 +4058,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>384</v>
       </c>
       <c r="B13" t="s">
         <v>383</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>372</v>
       </c>
@@ -4178,17 +4178,17 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4218,37 +4218,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4342,10 +4342,10 @@
       <c r="A10" t="s">
         <v>446</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>372</v>
       </c>
@@ -4354,13 +4354,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>442</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>342</v>
       </c>
@@ -4369,13 +4369,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>441</v>
       </c>
       <c r="B12" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>372</v>
       </c>
@@ -4384,13 +4384,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>438</v>
       </c>
       <c r="B13" t="s">
         <v>437</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>342</v>
       </c>
@@ -4609,17 +4609,17 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4648,37 +4648,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4772,10 +4772,10 @@
       <c r="A10" t="s">
         <v>498</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>372</v>
       </c>
@@ -4784,13 +4784,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>496</v>
       </c>
       <c r="B11" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>342</v>
       </c>
@@ -4799,13 +4799,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>494</v>
       </c>
       <c r="B12" t="s">
         <v>493</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>372</v>
       </c>
@@ -4814,13 +4814,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>492</v>
       </c>
       <c r="B13" t="s">
         <v>491</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>342</v>
       </c>
@@ -5069,17 +5069,17 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E31" s="12"/>
+      <c r="E31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5110,37 +5110,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5234,19 +5234,19 @@
       <c r="B10" t="s">
         <v>524</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>523</v>
       </c>
       <c r="B11" t="s">
         <v>522</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>517</v>
       </c>
@@ -5255,25 +5255,25 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>521</v>
       </c>
       <c r="B12" t="s">
         <v>520</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>518</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>517</v>
       </c>
@@ -5343,7 +5343,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B19" t="s">
@@ -5382,37 +5382,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       <c r="B10" t="s">
         <v>551</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>542</v>
       </c>
@@ -5518,13 +5518,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>550</v>
       </c>
       <c r="B11" t="s">
         <v>549</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>517</v>
       </c>
@@ -5533,13 +5533,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>548</v>
       </c>
       <c r="B12" t="s">
         <v>547</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>542</v>
       </c>
@@ -5548,13 +5548,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>546</v>
       </c>
       <c r="B13" t="s">
         <v>545</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>517</v>
       </c>
@@ -5627,7 +5627,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B19" t="s">
@@ -5666,37 +5666,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       <c r="B10" t="s">
         <v>593</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>542</v>
       </c>
@@ -5802,13 +5802,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>592</v>
       </c>
       <c r="B11" t="s">
         <v>591</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>517</v>
       </c>
@@ -5817,13 +5817,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>590</v>
       </c>
       <c r="B12" t="s">
         <v>589</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>542</v>
       </c>
@@ -5832,13 +5832,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>588</v>
       </c>
       <c r="B13" t="s">
         <v>587</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>517</v>
       </c>
@@ -5920,7 +5920,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>574</v>
       </c>
       <c r="B19" t="s">
@@ -5996,7 +5996,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B25" t="s">
@@ -6034,37 +6034,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>658</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       <c r="B10" t="s">
         <v>647</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>542</v>
       </c>
@@ -6170,13 +6170,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>645</v>
       </c>
       <c r="B11" t="s">
         <v>644</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>517</v>
       </c>
@@ -6185,13 +6185,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>643</v>
       </c>
       <c r="B12" t="s">
         <v>642</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>542</v>
       </c>
@@ -6200,13 +6200,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>640</v>
       </c>
       <c r="B13" t="s">
         <v>639</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>517</v>
       </c>
@@ -6215,7 +6215,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>638</v>
       </c>
       <c r="B14" t="s">
@@ -6229,7 +6229,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="11" t="s">
         <v>635</v>
       </c>
       <c r="B15" t="s">
@@ -6243,7 +6243,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>633</v>
       </c>
       <c r="B16" t="s">
@@ -6258,7 +6258,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>631</v>
       </c>
       <c r="B17" t="s">
@@ -6273,7 +6273,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>629</v>
       </c>
       <c r="B18" t="s">
@@ -6288,7 +6288,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>627</v>
       </c>
       <c r="B19" t="s">
@@ -6303,7 +6303,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>625</v>
       </c>
       <c r="B20" t="s">
@@ -6317,7 +6317,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>623</v>
       </c>
       <c r="B21" t="s">
@@ -6331,7 +6331,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>621</v>
       </c>
       <c r="B22" t="s">
@@ -6345,7 +6345,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>619</v>
       </c>
       <c r="B23" t="s">
@@ -6359,7 +6359,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="9" t="s">
         <v>617</v>
       </c>
       <c r="B24" t="s">
@@ -6373,7 +6373,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>614</v>
       </c>
       <c r="B25" t="s">
@@ -6387,7 +6387,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>612</v>
       </c>
       <c r="B26" t="s">
@@ -6448,7 +6448,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B31" t="s">
@@ -6486,37 +6486,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>687</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6613,7 +6613,7 @@
       <c r="B10" t="s">
         <v>674</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>542</v>
       </c>
@@ -6622,13 +6622,13 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>673</v>
       </c>
       <c r="B11" t="s">
         <v>672</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>517</v>
       </c>
@@ -6637,13 +6637,13 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="11" t="s">
         <v>671</v>
       </c>
       <c r="B12" t="s">
         <v>670</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>542</v>
       </c>
@@ -6652,13 +6652,13 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>668</v>
       </c>
       <c r="B13" t="s">
         <v>667</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>517</v>
       </c>
@@ -6667,7 +6667,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>666</v>
       </c>
       <c r="B14" t="s">
@@ -6731,7 +6731,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B19" t="s">
@@ -6769,37 +6769,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>739</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="49.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -7028,7 +7028,7 @@
       <c r="B18" t="s">
         <v>707</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="10"/>
       <c r="D18" t="s">
         <v>575</v>
       </c>
@@ -7037,13 +7037,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>706</v>
       </c>
       <c r="B19" t="s">
         <v>705</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="10"/>
       <c r="D19" t="s">
         <v>517</v>
       </c>
@@ -7052,13 +7052,13 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>704</v>
       </c>
       <c r="B20" t="s">
         <v>703</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="10"/>
       <c r="D20" t="s">
         <v>542</v>
       </c>
@@ -7067,13 +7067,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>701</v>
       </c>
       <c r="B21" t="s">
         <v>700</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="10"/>
       <c r="D21" t="s">
         <v>517</v>
       </c>
@@ -7082,7 +7082,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>699</v>
       </c>
       <c r="B22" t="s">
@@ -7175,7 +7175,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>316</v>
       </c>
       <c r="B29" t="s">
@@ -7214,22 +7214,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -7445,7 +7445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="14" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
@@ -7453,42 +7453,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>840</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>839</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="49.5">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
@@ -7511,7 +7511,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>308</v>
       </c>
       <c r="B5" t="s">
@@ -7529,7 +7529,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>360</v>
       </c>
       <c r="B6" t="s">
@@ -7547,7 +7547,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="33">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>829</v>
       </c>
       <c r="B7" t="s">
@@ -7568,7 +7568,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="33">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>825</v>
       </c>
       <c r="B8" t="s">
@@ -7589,7 +7589,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="33">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>821</v>
       </c>
       <c r="B9" t="s">
@@ -7604,7 +7604,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="33">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>819</v>
       </c>
       <c r="B10" t="s">
@@ -7619,7 +7619,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="33">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>817</v>
       </c>
       <c r="B11" t="s">
@@ -7634,7 +7634,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="33">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>815</v>
       </c>
       <c r="B12" t="s">
@@ -7649,7 +7649,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="14" t="s">
         <v>813</v>
       </c>
       <c r="B13" t="s">
@@ -7664,7 +7664,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="14" t="s">
         <v>811</v>
       </c>
       <c r="B14" t="s">
@@ -7679,7 +7679,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="14" t="s">
         <v>809</v>
       </c>
       <c r="B15" t="s">
@@ -7694,7 +7694,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="14" t="s">
         <v>807</v>
       </c>
       <c r="B16" t="s">
@@ -7709,7 +7709,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>805</v>
       </c>
       <c r="B17" t="s">
@@ -7724,13 +7724,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="14" t="s">
         <v>803</v>
       </c>
       <c r="B18" t="s">
         <v>802</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="10"/>
       <c r="D18" t="s">
         <v>542</v>
       </c>
@@ -7739,13 +7739,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="16" t="s">
         <v>801</v>
       </c>
       <c r="B19" t="s">
         <v>800</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="10"/>
       <c r="D19" t="s">
         <v>517</v>
       </c>
@@ -7754,13 +7754,13 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="16" t="s">
         <v>799</v>
       </c>
       <c r="B20" t="s">
         <v>798</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="10"/>
       <c r="D20" t="s">
         <v>542</v>
       </c>
@@ -7769,13 +7769,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="16" t="s">
         <v>797</v>
       </c>
       <c r="B21" t="s">
         <v>796</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="10"/>
       <c r="D21" t="s">
         <v>517</v>
       </c>
@@ -7784,7 +7784,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>795</v>
       </c>
       <c r="B22" t="s">
@@ -7798,7 +7798,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="33">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="14" t="s">
         <v>793</v>
       </c>
       <c r="B23" t="s">
@@ -7812,7 +7812,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="14" t="s">
         <v>791</v>
       </c>
       <c r="B24" t="s">
@@ -7827,7 +7827,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="33">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="14" t="s">
         <v>789</v>
       </c>
       <c r="B25" t="s">
@@ -7841,7 +7841,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>787</v>
       </c>
       <c r="B26" t="s">
@@ -7856,7 +7856,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="14" t="s">
         <v>785</v>
       </c>
       <c r="B27" t="s">
@@ -7871,7 +7871,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>783</v>
       </c>
       <c r="B28" t="s">
@@ -7886,7 +7886,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>781</v>
       </c>
       <c r="B29" t="s">
@@ -7901,7 +7901,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>779</v>
       </c>
       <c r="B30" t="s">
@@ -7915,7 +7915,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="14" t="s">
         <v>777</v>
       </c>
       <c r="B31" t="s">
@@ -7929,7 +7929,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>775</v>
       </c>
       <c r="B32" t="s">
@@ -7943,7 +7943,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="33">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="14" t="s">
         <v>773</v>
       </c>
       <c r="B33" t="s">
@@ -7957,7 +7957,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="33">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>771</v>
       </c>
       <c r="B34" t="s">
@@ -7971,7 +7971,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>768</v>
       </c>
       <c r="B35" t="s">
@@ -7985,7 +7985,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>766</v>
       </c>
       <c r="B36" t="s">
@@ -7999,7 +7999,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>764</v>
       </c>
       <c r="B37" t="s">
@@ -8013,7 +8013,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>761</v>
       </c>
       <c r="B38" t="s">
@@ -8027,7 +8027,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="33">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>758</v>
       </c>
       <c r="B39" t="s">
@@ -8041,7 +8041,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.45" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>756</v>
       </c>
       <c r="B40" t="s">
@@ -8055,7 +8055,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.45" customHeight="1">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>754</v>
       </c>
       <c r="B41" t="s">
@@ -8069,7 +8069,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.45" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>752</v>
       </c>
       <c r="B42" t="s">
@@ -8083,7 +8083,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="33">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="14" t="s">
         <v>750</v>
       </c>
       <c r="B43" t="s">
@@ -8097,7 +8097,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.45" customHeight="1">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="14" t="s">
         <v>748</v>
       </c>
       <c r="B44" t="s">
@@ -8111,7 +8111,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>327</v>
       </c>
       <c r="B45" t="s">
@@ -8122,7 +8122,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="14" t="s">
         <v>324</v>
       </c>
       <c r="B46" t="s">
@@ -8133,7 +8133,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="14" t="s">
         <v>322</v>
       </c>
       <c r="B47" t="s">
@@ -8144,7 +8144,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="14" t="s">
         <v>319</v>
       </c>
       <c r="B48" t="s">
@@ -8158,7 +8158,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="15" t="s">
         <v>316</v>
       </c>
       <c r="B49" t="s">
@@ -8195,22 +8195,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -8326,22 +8326,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -8534,22 +8534,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -8819,22 +8819,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9016,22 +9016,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9213,22 +9213,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9983,22 +9983,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\CityNavigation\ISTI_CityNavigation\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEAB9BB-36FE-4809-ACF5-2E92E55928C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B973E-D442-4F5C-8040-9BD75301CF5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="855">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2844,6 +2844,18 @@
   </si>
   <si>
     <t>Education</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2930,7 +2942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2982,13 +2994,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3302,7 +3317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -3313,10 +3328,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="str">
@@ -3538,22 +3553,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -3892,22 +3907,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -4218,22 +4233,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -4648,22 +4663,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -5110,22 +5125,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -5382,22 +5397,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -5666,22 +5681,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -6034,22 +6049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -6486,22 +6501,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>687</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -6769,22 +6784,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>739</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -7214,22 +7229,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -7453,22 +7468,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>840</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>839</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="49.5">
       <c r="A3" s="12" t="s">
@@ -8195,22 +8210,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -8310,10 +8325,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00A08E0-8C7E-4ECB-B481-93A833BA383B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="16.5"/>
@@ -8326,22 +8341,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -8376,21 +8391,22 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>852</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
+        <v>853</v>
+      </c>
+      <c r="C5" s="17"/>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -8398,10 +8414,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -8409,10 +8425,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -8420,10 +8436,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -8431,10 +8447,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -8442,10 +8458,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -8453,32 +8469,32 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -8486,23 +8502,34 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>97</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8534,22 +8561,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -8819,22 +8846,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9016,22 +9043,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9213,22 +9240,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9983,22 +10010,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\CityNavigation\ISTI_CityNavigation\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE52421D-FEEC-4304-8274-AC14353A7F0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6006E4-D847-45E5-B4BD-A5EB44064F3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="778" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
     <sheet name="Member" sheetId="2" r:id="rId2"/>
     <sheet name="Member_Log" sheetId="37" r:id="rId3"/>
-    <sheet name="CodeTable" sheetId="3" r:id="rId4"/>
-    <sheet name="BudgetExecution" sheetId="21" r:id="rId5"/>
-    <sheet name="CitySubMoney" sheetId="20" r:id="rId6"/>
-    <sheet name="ServiceSubMoney" sheetId="19" r:id="rId7"/>
-    <sheet name="CategorySubMoney" sheetId="22" r:id="rId8"/>
-    <sheet name="CitySummaryTable" sheetId="23" r:id="rId9"/>
-    <sheet name="CityPlanTable" sheetId="24" r:id="rId10"/>
-    <sheet name="Population" sheetId="25" r:id="rId11"/>
-    <sheet name="Travel" sheetId="26" r:id="rId12"/>
-    <sheet name="Traffic" sheetId="27" r:id="rId13"/>
-    <sheet name="Farming" sheetId="28" r:id="rId14"/>
-    <sheet name="Mayor" sheetId="29" r:id="rId15"/>
-    <sheet name="Industry" sheetId="30" r:id="rId16"/>
-    <sheet name="Retail" sheetId="31" r:id="rId17"/>
-    <sheet name="Safety" sheetId="32" r:id="rId18"/>
-    <sheet name="Energy" sheetId="33" r:id="rId19"/>
-    <sheet name="Health" sheetId="34" r:id="rId20"/>
-    <sheet name="Education" sheetId="35" r:id="rId21"/>
+    <sheet name="ImportData_Log" sheetId="40" r:id="rId4"/>
+    <sheet name="CodeTable" sheetId="3" r:id="rId5"/>
+    <sheet name="BudgetExecution" sheetId="21" r:id="rId6"/>
+    <sheet name="CitySubMoney" sheetId="20" r:id="rId7"/>
+    <sheet name="ServiceSubMoney" sheetId="19" r:id="rId8"/>
+    <sheet name="CategorySubMoney" sheetId="22" r:id="rId9"/>
+    <sheet name="CitySummaryTable" sheetId="23" r:id="rId10"/>
+    <sheet name="CityPlanTable" sheetId="24" r:id="rId11"/>
+    <sheet name="Population" sheetId="25" r:id="rId12"/>
+    <sheet name="Travel" sheetId="26" r:id="rId13"/>
+    <sheet name="Traffic" sheetId="27" r:id="rId14"/>
+    <sheet name="Farming" sheetId="28" r:id="rId15"/>
+    <sheet name="Mayor" sheetId="29" r:id="rId16"/>
+    <sheet name="Industry" sheetId="30" r:id="rId17"/>
+    <sheet name="Retail" sheetId="31" r:id="rId18"/>
+    <sheet name="Safety" sheetId="32" r:id="rId19"/>
+    <sheet name="Energy" sheetId="33" r:id="rId20"/>
+    <sheet name="Health" sheetId="34" r:id="rId21"/>
+    <sheet name="Education" sheetId="35" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="897">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2965,8 +2966,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成員基本資料 Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>成員異動紀錄 (Log)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member_Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成員異動紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDL_IP</t>
+  </si>
+  <si>
+    <t>IDL_Description</t>
+  </si>
+  <si>
+    <t>IDL_ModId</t>
+  </si>
+  <si>
+    <t>IDL_ModName</t>
+  </si>
+  <si>
+    <t>IDL_ModDate</t>
+  </si>
+  <si>
+    <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDL_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDB: 工業局
+ISTI: 產科所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱：ImportData_Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel上傳資料紀錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel上傳資料紀錄 (Log)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImportData_Log</t>
   </si>
 </sst>
 </file>
@@ -3061,7 +3117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3119,12 +3175,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3135,6 +3185,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3446,10 +3505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3459,10 +3518,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="str">
@@ -3474,164 +3533,180 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="str">
+      <c r="A3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="str">
         <f>CodeTable!A1</f>
         <v>代碼檔</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="str">
+    <row r="6" spans="1:2">
+      <c r="A6" t="str">
         <f>BudgetExecution!A1</f>
         <v>預計經費執行情形</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="str">
+    <row r="7" spans="1:2">
+      <c r="A7" t="str">
         <f>CitySubMoney!A1</f>
         <v>補助經費縣市分析</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="str">
+    <row r="8" spans="1:2">
+      <c r="A8" t="str">
         <f>ServiceSubMoney!A1</f>
         <v>補助經費服務主軸分析</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="str">
+    <row r="9" spans="1:2">
+      <c r="A9" t="str">
         <f>CategorySubMoney!A1</f>
         <v>補助經費計畫類別分析</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="str">
+    <row r="10" spans="1:2">
+      <c r="A10" t="str">
         <f>CitySummaryTable!A1</f>
         <v>縣市總表</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="str">
+    <row r="11" spans="1:2">
+      <c r="A11" t="str">
         <f>CityPlanTable!A1</f>
         <v>各縣市計畫列表</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="str">
+    <row r="12" spans="1:2">
+      <c r="A12" t="str">
         <f>Population!A1</f>
         <v>土地人口</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="str">
+    <row r="13" spans="1:2">
+      <c r="A13" t="str">
         <f>Travel!A1</f>
         <v>觀光</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="str">
+    <row r="14" spans="1:2">
+      <c r="A14" t="str">
         <f>Traffic!A1</f>
         <v>交通</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="str">
+    <row r="15" spans="1:2">
+      <c r="A15" t="str">
         <f>Farming!A1</f>
         <v>農業</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="str">
+    <row r="16" spans="1:2">
+      <c r="A16" t="str">
         <f>Mayor!A1</f>
         <v>市長副市長</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="str">
+    <row r="17" spans="1:2">
+      <c r="A17" t="str">
         <f>Industry!A1</f>
         <v>產業</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="str">
+    <row r="18" spans="1:2">
+      <c r="A18" t="str">
         <f>Retail!A1</f>
         <v>零售</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="str">
+    <row r="19" spans="1:2">
+      <c r="A19" t="str">
         <f>Safety!A1</f>
         <v>安全</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="str">
+    <row r="20" spans="1:2">
+      <c r="A20" t="str">
         <f>Energy!A1</f>
         <v>能源</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="str">
+    <row r="21" spans="1:2">
+      <c r="A21" t="str">
         <f>Health!A1</f>
         <v>健康</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="str">
+    <row r="22" spans="1:2">
+      <c r="A22" t="str">
         <f>Education!A1</f>
         <v>教育</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>843</v>
       </c>
     </row>
@@ -3641,25 +3716,27 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="CodeTable!A1" display="CodeTable" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" location="CodeTable!A1" display="CodeTable" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B2" location="Member!A1" display="Member" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" location="BudgetExecution!A1" display="BudgetExecution" xr:uid="{C2FE848C-03DE-4751-B34C-AACC2429AC68}"/>
-    <hyperlink ref="B5" location="CitySubMoney!A1" display="CitySubMoney" xr:uid="{A49000D0-3D7A-4932-97C2-3A232C084ADD}"/>
-    <hyperlink ref="B6" location="ServiceSubMoney!A1" display="ServiceSubMoney" xr:uid="{F7E1EA7E-4C04-44D0-8B9B-50DCD1C9ADBC}"/>
-    <hyperlink ref="B7" location="CategorySubMoney!A1" display="CategorySubMoney" xr:uid="{4D007498-0FA5-4332-B42F-9BF2FEF51D8B}"/>
-    <hyperlink ref="B8" location="CitySummaryTable!A1" display="CitySummaryTable" xr:uid="{440AA28A-2EAC-4E42-B760-54D6D994828B}"/>
-    <hyperlink ref="B9" location="CityPlanTable!A1" display="CityPlanTable" xr:uid="{D65B88DB-ACF0-44A3-A45D-1AD2549DD574}"/>
-    <hyperlink ref="B10" location="Population!A1" display="Population" xr:uid="{FFAAE507-7AA2-4E01-81C4-7D556F867301}"/>
-    <hyperlink ref="B11" location="Travel!A1" display="Travel" xr:uid="{E3ACD410-0A4E-4C0F-AFF3-C7D349E6F8BD}"/>
-    <hyperlink ref="B12" location="Traffic!A1" display="Traffic" xr:uid="{BA01D23C-694F-486E-A6F6-CA312A0A15D2}"/>
-    <hyperlink ref="B13" location="Farming!A1" display="Farming" xr:uid="{263D98FD-229A-4063-949E-7D420B9D0783}"/>
-    <hyperlink ref="B14" location="Mayor!A1" display="Mayor" xr:uid="{67C22751-8456-440C-A4F7-DCC4C1E167A1}"/>
-    <hyperlink ref="B15" location="Industry!A1" display="Industry" xr:uid="{7181D111-41CB-4857-BC6C-C38A40B5F35D}"/>
-    <hyperlink ref="B16" location="Retail!A1" display="Retail" xr:uid="{4FE5842C-1CBF-4E6F-ADD5-BDBD748D976A}"/>
-    <hyperlink ref="B17" location="Safety!A1" display="Safety" xr:uid="{87190122-73BF-4EA9-8DB2-ACD28288FB17}"/>
-    <hyperlink ref="B18" location="Energy!A1" display="Energy" xr:uid="{F1554706-D073-4D6D-A162-B8B99F8EF094}"/>
-    <hyperlink ref="B19" location="Health!A1" display="Health" xr:uid="{2550CC83-FE6D-4CB0-9375-F289E5D61870}"/>
-    <hyperlink ref="B20" location="Education!A1" display="Education" xr:uid="{7870DBEB-2FD0-45A0-8E72-3C3E5BA86193}"/>
+    <hyperlink ref="B6" location="BudgetExecution!A1" display="BudgetExecution" xr:uid="{C2FE848C-03DE-4751-B34C-AACC2429AC68}"/>
+    <hyperlink ref="B7" location="CitySubMoney!A1" display="CitySubMoney" xr:uid="{A49000D0-3D7A-4932-97C2-3A232C084ADD}"/>
+    <hyperlink ref="B8" location="ServiceSubMoney!A1" display="ServiceSubMoney" xr:uid="{F7E1EA7E-4C04-44D0-8B9B-50DCD1C9ADBC}"/>
+    <hyperlink ref="B9" location="CategorySubMoney!A1" display="CategorySubMoney" xr:uid="{4D007498-0FA5-4332-B42F-9BF2FEF51D8B}"/>
+    <hyperlink ref="B10" location="CitySummaryTable!A1" display="CitySummaryTable" xr:uid="{440AA28A-2EAC-4E42-B760-54D6D994828B}"/>
+    <hyperlink ref="B11" location="CityPlanTable!A1" display="CityPlanTable" xr:uid="{D65B88DB-ACF0-44A3-A45D-1AD2549DD574}"/>
+    <hyperlink ref="B12" location="Population!A1" display="Population" xr:uid="{FFAAE507-7AA2-4E01-81C4-7D556F867301}"/>
+    <hyperlink ref="B13" location="Travel!A1" display="Travel" xr:uid="{E3ACD410-0A4E-4C0F-AFF3-C7D349E6F8BD}"/>
+    <hyperlink ref="B14" location="Traffic!A1" display="Traffic" xr:uid="{BA01D23C-694F-486E-A6F6-CA312A0A15D2}"/>
+    <hyperlink ref="B15" location="Farming!A1" display="Farming" xr:uid="{263D98FD-229A-4063-949E-7D420B9D0783}"/>
+    <hyperlink ref="B16" location="Mayor!A1" display="Mayor" xr:uid="{67C22751-8456-440C-A4F7-DCC4C1E167A1}"/>
+    <hyperlink ref="B17" location="Industry!A1" display="Industry" xr:uid="{7181D111-41CB-4857-BC6C-C38A40B5F35D}"/>
+    <hyperlink ref="B18" location="Retail!A1" display="Retail" xr:uid="{4FE5842C-1CBF-4E6F-ADD5-BDBD748D976A}"/>
+    <hyperlink ref="B19" location="Safety!A1" display="Safety" xr:uid="{87190122-73BF-4EA9-8DB2-ACD28288FB17}"/>
+    <hyperlink ref="B20" location="Energy!A1" display="Energy" xr:uid="{F1554706-D073-4D6D-A162-B8B99F8EF094}"/>
+    <hyperlink ref="B21" location="Health!A1" display="Health" xr:uid="{2550CC83-FE6D-4CB0-9375-F289E5D61870}"/>
+    <hyperlink ref="B22" location="Education!A1" display="Education" xr:uid="{7870DBEB-2FD0-45A0-8E72-3C3E5BA86193}"/>
+    <hyperlink ref="B3" location="Member_Log!A1" display="Member_Log" xr:uid="{4E50989D-BAA5-4B08-864F-373EFD86CCEF}"/>
+    <hyperlink ref="B4" location="ImportData_Log!A1" display="ImportData_Log" xr:uid="{B6C2743D-71E9-4ED0-B790-7ABE8EC4A7F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3667,6 +3744,776 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5769AF-C689-4D63-A49A-DC539381C57B}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="49.5">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>271</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>275</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E374187-1EAD-4BE5-82D1-5AC704E17419}">
   <dimension ref="A1:E27"/>
   <sheetViews>
@@ -3684,22 +4531,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -3995,7 +4842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68C6FEA-48B0-49C3-AA9E-EC789BE4EF93}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -4013,22 +4860,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -4179,167 +5026,167 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>850</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>855</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>866</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="20" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>857</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="20" t="s">
         <v>856</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="20" t="s">
         <v>865</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="20" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>858</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>861</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="20" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>864</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="20" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="20" t="s">
         <v>859</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="20" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4428,7 +5275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5E331-88F3-4DCC-B5F9-8E76F4F55940}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -4446,22 +5293,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -4754,7 +5601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4811CF10-492E-4601-8149-3D3F326EB01A}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -4772,22 +5619,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -5185,7 +6032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FA84A0-8CE7-4BC9-B772-E18BCCD99194}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -5202,22 +6049,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -5646,7 +6493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77018F6F-99F5-4A18-AE06-8E187C3F6B0B}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -5664,22 +6511,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -5918,7 +6765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76E1351-FBFF-480C-B3E5-971ABD44E759}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -5936,22 +6783,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -6202,7 +7049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6664B770-3021-4B13-B62A-05E34B3E3495}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -6220,22 +7067,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -6570,7 +7417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F35391F-BA8A-46C2-97A6-E7AB51D6634F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -6588,22 +7435,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -7022,7 +7869,246 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="49.5">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA027C3-A5E9-4CA4-A598-268C72FE0293}">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -7040,22 +8126,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>679</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -7306,246 +8392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3BA46-224D-4372-B8E7-1B9F926D4397}">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -7562,22 +8409,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>731</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="49.5">
       <c r="A3" s="13" t="s">
@@ -7989,7 +8836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3730026-B4AF-4349-A882-83AADCA86184}">
   <dimension ref="A1:H49"/>
   <sheetViews>
@@ -8007,22 +8854,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>832</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>831</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="49.5">
       <c r="A3" s="12" t="s">
@@ -8736,8 +9583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B394A9-90D1-45BF-A525-EFB99E07F413}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.25" defaultRowHeight="16.5"/>
@@ -8750,22 +9597,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
-        <v>881</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -8807,7 +9654,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8881,6 +9728,157 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F87E2B-E716-4229-95FA-30ECB8C50783}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" ht="49.5">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36" customHeight="1">
+      <c r="A5" t="s">
+        <v>890</v>
+      </c>
+      <c r="B5" t="s">
+        <v>891</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>874</v>
+      </c>
+      <c r="B6" t="s">
+        <v>885</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B7" t="s">
+        <v>886</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>877</v>
+      </c>
+      <c r="B8" t="s">
+        <v>887</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>879</v>
+      </c>
+      <c r="B9" t="s">
+        <v>888</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>878</v>
+      </c>
+      <c r="B10" t="s">
+        <v>889</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -8897,22 +9895,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9010,7 +10008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00A08E0-8C7E-4ECB-B481-93A833BA383B}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -9028,22 +10026,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9230,7 +10228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ED180A-AB21-4D11-BC3E-CE4571EB9B9B}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -9248,22 +10246,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9516,7 +10514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54A54B2-D6CC-459E-B224-D9F816FAE6DF}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -9533,22 +10531,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9712,7 +10710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8D41AF-0254-4BFF-8D5A-90D88B0556BA}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -9730,22 +10728,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" ht="49.5">
       <c r="A3" s="2" t="s">
@@ -9907,774 +10905,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5769AF-C689-4D63-A49A-DC539381C57B}">
-  <dimension ref="A1:E67"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" ht="49.5">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="B18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>233</v>
-      </c>
-      <c r="B19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>242</v>
-      </c>
-      <c r="B28" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>245</v>
-      </c>
-      <c r="B31" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B35" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>252</v>
-      </c>
-      <c r="B38" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>253</v>
-      </c>
-      <c r="B39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>254</v>
-      </c>
-      <c r="B40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>255</v>
-      </c>
-      <c r="B41" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>256</v>
-      </c>
-      <c r="B42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>257</v>
-      </c>
-      <c r="B43" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>258</v>
-      </c>
-      <c r="B44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>259</v>
-      </c>
-      <c r="B45" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" t="s">
-        <v>197</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>262</v>
-      </c>
-      <c r="B48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>263</v>
-      </c>
-      <c r="B49" t="s">
-        <v>199</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>264</v>
-      </c>
-      <c r="B50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>265</v>
-      </c>
-      <c r="B51" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>266</v>
-      </c>
-      <c r="B52" t="s">
-        <v>202</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>267</v>
-      </c>
-      <c r="B53" t="s">
-        <v>203</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>268</v>
-      </c>
-      <c r="B54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55" t="s">
-        <v>205</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>270</v>
-      </c>
-      <c r="B56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>271</v>
-      </c>
-      <c r="B57" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>272</v>
-      </c>
-      <c r="B58" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>273</v>
-      </c>
-      <c r="B59" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>274</v>
-      </c>
-      <c r="B60" t="s">
-        <v>210</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>275</v>
-      </c>
-      <c r="B61" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>276</v>
-      </c>
-      <c r="B62" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" t="s">
-        <v>213</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>33</v>
-      </c>
-      <c r="B67" t="s">
-        <v>217</v>
-      </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\CityNavigation\ISTI_CityNavigation\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6006E4-D847-45E5-B4BD-A5EB44064F3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41712D4-0DB1-4A10-AFC9-4274A5157E6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -3507,7 +3507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -9584,7 +9584,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.25" defaultRowHeight="16.5"/>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="C5" s="18"/>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9724,6 +9724,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9731,8 +9732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F87E2B-E716-4229-95FA-30ECB8C50783}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9817,7 +9818,7 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\CityNavigation\ISTI_CityNavigation\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41712D4-0DB1-4A10-AFC9-4274A5157E6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA7B10-F2DE-4200-8A27-3519E1A49284}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="778" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="909">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3023,6 +3023,54 @@
   </si>
   <si>
     <t>ImportData_Log</t>
+  </si>
+  <si>
+    <t>計畫摘要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫痛點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現階段成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>計畫完成成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS_PlanSummary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS_PlanDefect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS_NowResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS_DoneResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_PlanSummary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_PlanDefect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_NowResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_DoneResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3508,7 +3556,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3745,10 +3793,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5769AF-C689-4D63-A49A-DC539381C57B}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="16.5"/>
@@ -3899,65 +3947,65 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>897</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>901</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>898</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>902</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>899</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>903</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>904</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -3965,32 +4013,32 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -3998,10 +4046,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -4009,10 +4057,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -4020,10 +4068,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -4031,10 +4079,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -4042,10 +4090,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -4053,10 +4101,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -4064,10 +4112,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -4075,10 +4123,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -4086,10 +4134,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -4097,10 +4145,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -4108,10 +4156,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -4119,10 +4167,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -4130,10 +4178,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -4141,10 +4189,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -4152,10 +4200,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -4163,10 +4211,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -4174,10 +4222,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -4185,10 +4233,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -4196,10 +4244,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -4207,10 +4255,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -4218,10 +4266,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -4229,10 +4277,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -4240,10 +4288,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -4251,10 +4299,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -4262,10 +4310,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -4273,10 +4321,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -4284,10 +4332,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -4295,10 +4343,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -4306,10 +4354,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -4317,10 +4365,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -4328,10 +4376,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -4339,10 +4387,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -4350,10 +4398,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -4361,10 +4409,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -4372,10 +4420,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -4383,10 +4431,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B57" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -4394,10 +4442,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -4405,10 +4453,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -4416,10 +4464,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -4427,10 +4475,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -4438,10 +4486,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -4449,21 +4497,21 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -4471,10 +4519,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -4482,23 +4530,67 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>33</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" t="s">
         <v>217</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D71" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4515,10 +4607,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E374187-1EAD-4BE5-82D1-5AC704E17419}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="16.5"/>
@@ -4691,65 +4783,65 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>897</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>905</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>898</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>906</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>899</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>907</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>900</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>908</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -4757,43 +4849,43 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -4801,10 +4893,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -4812,23 +4904,67 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>302</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D31" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4839,6 +4975,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9732,7 +9869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F87E2B-E716-4229-95FA-30ECB8C50783}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\CityNavigation\ISTI_CityNavigation\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA7B10-F2DE-4200-8A27-3519E1A49284}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="778" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="778" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
     <sheet name="Health" sheetId="34" r:id="rId21"/>
     <sheet name="Education" sheetId="35" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="913">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1490,18 +1484,6 @@
     <t>個</t>
   </si>
   <si>
-    <t>Tra_CarParkSpace</t>
-  </si>
-  <si>
-    <t>小汽車路邊及路外停車位</t>
-  </si>
-  <si>
-    <t>Tra_CarParkSpaceYear</t>
-  </si>
-  <si>
-    <t>小汽車路邊及路外停車位-資料年度</t>
-  </si>
-  <si>
     <t>分鐘</t>
   </si>
   <si>
@@ -3070,13 +3052,45 @@
   </si>
   <si>
     <t>CP_DoneResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汽車路外停車位-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汽車路外停車位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汽車路邊停車位-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汽車路邊停車位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadsidParkSpaceYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadsidParkSpace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadOutsideParkSpaceYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadOutsideParkSpace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -3274,7 +3288,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3545,23 +3559,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3582,18 +3596,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3665,7 +3679,7 @@
         <v>土地人口</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3674,7 +3688,7 @@
         <v>觀光</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3683,7 +3697,7 @@
         <v>交通</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3692,7 +3706,7 @@
         <v>農業</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3701,7 +3715,7 @@
         <v>市長副市長</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3710,7 +3724,7 @@
         <v>產業</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3719,7 +3733,7 @@
         <v>零售</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3728,7 +3742,7 @@
         <v>安全</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3737,7 +3751,7 @@
         <v>能源</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3746,7 +3760,7 @@
         <v>健康</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3755,7 +3769,7 @@
         <v>教育</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -3764,27 +3778,27 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" location="CodeTable!A1" display="CodeTable" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" location="Member!A1" display="Member" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B6" location="BudgetExecution!A1" display="BudgetExecution" xr:uid="{C2FE848C-03DE-4751-B34C-AACC2429AC68}"/>
-    <hyperlink ref="B7" location="CitySubMoney!A1" display="CitySubMoney" xr:uid="{A49000D0-3D7A-4932-97C2-3A232C084ADD}"/>
-    <hyperlink ref="B8" location="ServiceSubMoney!A1" display="ServiceSubMoney" xr:uid="{F7E1EA7E-4C04-44D0-8B9B-50DCD1C9ADBC}"/>
-    <hyperlink ref="B9" location="CategorySubMoney!A1" display="CategorySubMoney" xr:uid="{4D007498-0FA5-4332-B42F-9BF2FEF51D8B}"/>
-    <hyperlink ref="B10" location="CitySummaryTable!A1" display="CitySummaryTable" xr:uid="{440AA28A-2EAC-4E42-B760-54D6D994828B}"/>
-    <hyperlink ref="B11" location="CityPlanTable!A1" display="CityPlanTable" xr:uid="{D65B88DB-ACF0-44A3-A45D-1AD2549DD574}"/>
-    <hyperlink ref="B12" location="Population!A1" display="Population" xr:uid="{FFAAE507-7AA2-4E01-81C4-7D556F867301}"/>
-    <hyperlink ref="B13" location="Travel!A1" display="Travel" xr:uid="{E3ACD410-0A4E-4C0F-AFF3-C7D349E6F8BD}"/>
-    <hyperlink ref="B14" location="Traffic!A1" display="Traffic" xr:uid="{BA01D23C-694F-486E-A6F6-CA312A0A15D2}"/>
-    <hyperlink ref="B15" location="Farming!A1" display="Farming" xr:uid="{263D98FD-229A-4063-949E-7D420B9D0783}"/>
-    <hyperlink ref="B16" location="Mayor!A1" display="Mayor" xr:uid="{67C22751-8456-440C-A4F7-DCC4C1E167A1}"/>
-    <hyperlink ref="B17" location="Industry!A1" display="Industry" xr:uid="{7181D111-41CB-4857-BC6C-C38A40B5F35D}"/>
-    <hyperlink ref="B18" location="Retail!A1" display="Retail" xr:uid="{4FE5842C-1CBF-4E6F-ADD5-BDBD748D976A}"/>
-    <hyperlink ref="B19" location="Safety!A1" display="Safety" xr:uid="{87190122-73BF-4EA9-8DB2-ACD28288FB17}"/>
-    <hyperlink ref="B20" location="Energy!A1" display="Energy" xr:uid="{F1554706-D073-4D6D-A162-B8B99F8EF094}"/>
-    <hyperlink ref="B21" location="Health!A1" display="Health" xr:uid="{2550CC83-FE6D-4CB0-9375-F289E5D61870}"/>
-    <hyperlink ref="B22" location="Education!A1" display="Education" xr:uid="{7870DBEB-2FD0-45A0-8E72-3C3E5BA86193}"/>
-    <hyperlink ref="B3" location="Member_Log!A1" display="Member_Log" xr:uid="{4E50989D-BAA5-4B08-864F-373EFD86CCEF}"/>
-    <hyperlink ref="B4" location="ImportData_Log!A1" display="ImportData_Log" xr:uid="{B6C2743D-71E9-4ED0-B790-7ABE8EC4A7F4}"/>
+    <hyperlink ref="B5" location="CodeTable!A1" display="CodeTable"/>
+    <hyperlink ref="B2" location="Member!A1" display="Member"/>
+    <hyperlink ref="B6" location="BudgetExecution!A1" display="BudgetExecution"/>
+    <hyperlink ref="B7" location="CitySubMoney!A1" display="CitySubMoney"/>
+    <hyperlink ref="B8" location="ServiceSubMoney!A1" display="ServiceSubMoney"/>
+    <hyperlink ref="B9" location="CategorySubMoney!A1" display="CategorySubMoney"/>
+    <hyperlink ref="B10" location="CitySummaryTable!A1" display="CitySummaryTable"/>
+    <hyperlink ref="B11" location="CityPlanTable!A1" display="CityPlanTable"/>
+    <hyperlink ref="B12" location="Population!A1" display="Population"/>
+    <hyperlink ref="B13" location="Travel!A1" display="Travel"/>
+    <hyperlink ref="B14" location="Traffic!A1" display="Traffic"/>
+    <hyperlink ref="B15" location="Farming!A1" display="Farming"/>
+    <hyperlink ref="B16" location="Mayor!A1" display="Mayor"/>
+    <hyperlink ref="B17" location="Industry!A1" display="Industry"/>
+    <hyperlink ref="B18" location="Retail!A1" display="Retail"/>
+    <hyperlink ref="B19" location="Safety!A1" display="Safety"/>
+    <hyperlink ref="B20" location="Energy!A1" display="Energy"/>
+    <hyperlink ref="B21" location="Health!A1" display="Health"/>
+    <hyperlink ref="B22" location="Education!A1" display="Education"/>
+    <hyperlink ref="B3" location="Member_Log!A1" display="Member_Log"/>
+    <hyperlink ref="B4" location="ImportData_Log!A1" display="ImportData_Log"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3792,20 +3806,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5769AF-C689-4D63-A49A-DC539381C57B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="33.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3826,7 +3840,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -3947,10 +3961,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>893</v>
+      </c>
+      <c r="B13" t="s">
         <v>897</v>
-      </c>
-      <c r="B13" t="s">
-        <v>901</v>
       </c>
       <c r="D13" t="s">
         <v>278</v>
@@ -3958,10 +3972,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>894</v>
+      </c>
+      <c r="B14" t="s">
         <v>898</v>
-      </c>
-      <c r="B14" t="s">
-        <v>902</v>
       </c>
       <c r="D14" t="s">
         <v>278</v>
@@ -3969,10 +3983,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>895</v>
+      </c>
+      <c r="B15" t="s">
         <v>899</v>
-      </c>
-      <c r="B15" t="s">
-        <v>903</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -3980,10 +3994,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>896</v>
+      </c>
+      <c r="B16" t="s">
         <v>900</v>
-      </c>
-      <c r="B16" t="s">
-        <v>904</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4606,20 +4620,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E374187-1EAD-4BE5-82D1-5AC704E17419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.5" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="32.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4640,7 +4654,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -4783,10 +4797,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B15" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -4794,10 +4808,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B16" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4805,10 +4819,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B17" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D17" t="s">
         <v>278</v>
@@ -4816,10 +4830,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B18" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D18" t="s">
         <v>278</v>
@@ -4980,19 +4994,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68C6FEA-48B0-49C3-AA9E-EC789BE4EF93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5014,7 +5028,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -5134,7 +5148,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="B11" t="s">
         <v>341</v>
@@ -5164,10 +5178,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20" t="s">
@@ -5194,10 +5208,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20" t="s">
@@ -5209,7 +5223,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>333</v>
@@ -5224,10 +5238,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="20" t="s">
@@ -5242,7 +5256,7 @@
         <v>332</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="20" t="s">
@@ -5254,10 +5268,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="20" t="s">
@@ -5269,10 +5283,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
@@ -5284,10 +5298,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20" t="s">
@@ -5302,7 +5316,7 @@
         <v>331</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20" t="s">
@@ -5314,10 +5328,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
@@ -5329,10 +5343,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B24" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D24" t="s">
         <v>329</v>
@@ -5413,20 +5427,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5E331-88F3-4DCC-B5F9-8E76F4F55940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="45.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5447,7 +5461,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -5739,25 +5753,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4811CF10-492E-4601-8149-3D3F326EB01A}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="54.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5766,14 +5780,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -5795,7 +5809,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -5812,7 +5826,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -5824,7 +5838,7 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -5833,10 +5847,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -5848,10 +5862,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
@@ -5863,10 +5877,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
@@ -5878,25 +5892,25 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>364</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>435</v>
+        <v>907</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>909</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
@@ -5908,10 +5922,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>433</v>
+        <v>908</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>910</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
@@ -5923,10 +5937,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>430</v>
+        <v>905</v>
       </c>
       <c r="B13" t="s">
-        <v>429</v>
+        <v>911</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
@@ -5937,26 +5951,28 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>428</v>
+      <c r="A14" s="11" t="s">
+        <v>906</v>
       </c>
       <c r="B14" t="s">
-        <v>427</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="D14" t="s">
         <v>364</v>
       </c>
       <c r="E14" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>425</v>
+      <c r="A15" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>424</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C15" s="10"/>
       <c r="D15" t="s">
         <v>337</v>
       </c>
@@ -5966,27 +5982,25 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s">
-        <v>422</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>427</v>
+      </c>
       <c r="D16" t="s">
         <v>364</v>
       </c>
       <c r="E16" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s">
-        <v>420</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>424</v>
+      </c>
       <c r="D17" t="s">
         <v>337</v>
       </c>
@@ -5996,10 +6010,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -6011,70 +6025,70 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
         <v>337</v>
       </c>
       <c r="E19" t="s">
-        <v>414</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B20" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B21" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" t="s">
         <v>337</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B22" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="E22" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
@@ -6086,78 +6100,108 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
         <v>364</v>
       </c>
       <c r="E24" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" t="s">
-        <v>325</v>
+        <v>337</v>
+      </c>
+      <c r="E25" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" t="s">
-        <v>320</v>
+        <v>364</v>
+      </c>
+      <c r="E26" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D27" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>319</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>397</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>145</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6170,24 +6214,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FA84A0-8CE7-4BC9-B772-E18BCCD99194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6196,14 +6240,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -6225,7 +6269,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6242,7 +6286,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6254,7 +6298,7 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6263,10 +6307,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -6278,25 +6322,25 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>364</v>
       </c>
       <c r="E8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
@@ -6308,25 +6352,25 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>364</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
@@ -6338,25 +6382,25 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>364</v>
       </c>
       <c r="E12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
@@ -6368,24 +6412,24 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D14" t="s">
         <v>364</v>
       </c>
       <c r="E14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D15" t="s">
         <v>337</v>
@@ -6396,25 +6440,25 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>364</v>
       </c>
       <c r="E16" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -6426,25 +6470,25 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>364</v>
       </c>
       <c r="E18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -6456,40 +6500,40 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" t="s">
         <v>364</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" t="s">
         <v>337</v>
       </c>
       <c r="E21" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B22" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" t="s">
@@ -6501,10 +6545,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
@@ -6516,10 +6560,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B24" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
@@ -6531,10 +6575,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" t="s">
@@ -6546,17 +6590,17 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B26" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
         <v>364</v>
       </c>
       <c r="E26" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6564,7 +6608,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D27" t="s">
         <v>325</v>
@@ -6575,7 +6619,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D28" t="s">
         <v>320</v>
@@ -6586,7 +6630,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D29" t="s">
         <v>320</v>
@@ -6597,7 +6641,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -6611,7 +6655,7 @@
         <v>316</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -6631,25 +6675,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77018F6F-99F5-4A18-AE06-8E187C3F6B0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="54.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6658,14 +6702,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -6687,7 +6731,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6704,7 +6748,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6716,7 +6760,7 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6725,14 +6769,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
         <v>336</v>
@@ -6740,10 +6784,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
@@ -6752,14 +6796,14 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
         <v>336</v>
@@ -6767,10 +6811,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
@@ -6779,14 +6823,14 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E11" t="s">
         <v>336</v>
@@ -6794,10 +6838,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
@@ -6806,14 +6850,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E13" t="s">
         <v>336</v>
@@ -6821,10 +6865,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B14" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -6835,7 +6879,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -6846,7 +6890,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -6858,7 +6902,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -6870,7 +6914,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -6885,7 +6929,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -6903,25 +6947,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76E1351-FBFF-480C-B3E5-971ABD44E759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="60.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6930,14 +6974,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -6959,7 +7003,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6976,7 +7020,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6988,7 +7032,7 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6997,14 +7041,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
         <v>374</v>
@@ -7012,29 +7056,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
         <v>336</v>
@@ -7042,29 +7086,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B11" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E11" t="s">
         <v>336</v>
@@ -7072,29 +7116,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B13" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E13" t="s">
         <v>336</v>
@@ -7102,16 +7146,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B14" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D14" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7119,7 +7163,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -7130,7 +7174,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -7142,7 +7186,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -7154,7 +7198,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -7169,7 +7213,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -7187,25 +7231,25 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6664B770-3021-4B13-B62A-05E34B3E3495}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7214,14 +7258,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -7243,7 +7287,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7260,7 +7304,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7272,7 +7316,7 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7281,14 +7325,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
         <v>336</v>
@@ -7296,14 +7340,14 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E8" t="s">
         <v>374</v>
@@ -7311,14 +7355,14 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
         <v>336</v>
@@ -7326,14 +7370,14 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
         <v>330</v>
@@ -7341,14 +7385,14 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E11" t="s">
         <v>336</v>
@@ -7356,29 +7400,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B13" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E13" t="s">
         <v>336</v>
@@ -7386,27 +7430,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B14" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D14" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E14" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B15" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E15" t="s">
         <v>336</v>
@@ -7414,44 +7458,44 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B16" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E16" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B17" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>364</v>
       </c>
       <c r="E17" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -7459,14 +7503,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B19" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E19" t="s">
         <v>336</v>
@@ -7474,16 +7518,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B20" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7491,7 +7535,7 @@
         <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -7502,7 +7546,7 @@
         <v>324</v>
       </c>
       <c r="B22" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -7513,7 +7557,7 @@
         <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -7524,7 +7568,7 @@
         <v>319</v>
       </c>
       <c r="B24" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -7538,7 +7582,7 @@
         <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -7555,25 +7599,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F35391F-BA8A-46C2-97A6-E7AB51D6634F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7582,14 +7626,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -7611,7 +7655,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7628,7 +7672,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7640,7 +7684,7 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7649,14 +7693,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
         <v>336</v>
@@ -7664,29 +7708,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B8" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E8" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B9" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
         <v>336</v>
@@ -7694,29 +7738,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B11" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E11" t="s">
         <v>336</v>
@@ -7724,29 +7768,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B12" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B13" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E13" t="s">
         <v>336</v>
@@ -7754,27 +7798,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B14" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D14" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E14" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E15" t="s">
         <v>336</v>
@@ -7782,29 +7826,29 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B16" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E16" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E17" t="s">
         <v>336</v>
@@ -7812,14 +7856,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -7827,14 +7871,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B19" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E19" t="s">
         <v>336</v>
@@ -7842,27 +7886,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B20" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E20" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B21" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E21" t="s">
         <v>336</v>
@@ -7870,13 +7914,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B22" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E22" t="s">
         <v>328</v>
@@ -7884,13 +7928,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B23" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D23" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E23" t="s">
         <v>336</v>
@@ -7898,27 +7942,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B24" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E24" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B25" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D25" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E25" t="s">
         <v>336</v>
@@ -7926,13 +7970,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B26" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D26" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -7943,7 +7987,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -7954,7 +7998,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -7965,7 +8009,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -7976,7 +8020,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -7990,7 +8034,7 @@
         <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -8007,20 +8051,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8041,7 +8085,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -8246,25 +8290,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA027C3-A5E9-4CA4-A598-268C72FE0293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8273,14 +8317,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -8302,7 +8346,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -8319,7 +8363,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -8331,7 +8375,7 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -8340,14 +8384,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
         <v>336</v>
@@ -8355,29 +8399,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B8" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E8" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B9" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
         <v>336</v>
@@ -8385,29 +8429,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B10" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E11" t="s">
         <v>336</v>
@@ -8415,29 +8459,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B13" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E13" t="s">
         <v>336</v>
@@ -8445,13 +8489,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B14" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -8462,7 +8506,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -8473,7 +8517,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -8485,7 +8529,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -8497,7 +8541,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -8512,7 +8556,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -8530,24 +8574,24 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E3BA46-224D-4372-B8E7-1B9F926D4397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="25" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8556,14 +8600,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -8585,7 +8629,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -8597,10 +8641,10 @@
         <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="H4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8608,17 +8652,17 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="H5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8626,7 +8670,7 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -8635,14 +8679,14 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
         <v>336</v>
@@ -8650,29 +8694,29 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B8" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E8" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B9" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
         <v>336</v>
@@ -8680,29 +8724,29 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B10" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>364</v>
       </c>
       <c r="E10" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B11" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E11" t="s">
         <v>336</v>
@@ -8710,14 +8754,14 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B12" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
         <v>330</v>
@@ -8725,14 +8769,14 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B13" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E13" t="s">
         <v>336</v>
@@ -8740,14 +8784,14 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B14" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -8755,14 +8799,14 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B15" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E15" t="s">
         <v>336</v>
@@ -8770,14 +8814,14 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B16" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E16" t="s">
         <v>330</v>
@@ -8785,14 +8829,14 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B17" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E17" t="s">
         <v>336</v>
@@ -8800,14 +8844,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B18" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -8815,14 +8859,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B19" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E19" t="s">
         <v>336</v>
@@ -8830,29 +8874,29 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B20" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E20" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B21" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E21" t="s">
         <v>336</v>
@@ -8860,27 +8904,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B22" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D22" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E22" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B23" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D23" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E23" t="s">
         <v>336</v>
@@ -8888,17 +8932,17 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B24" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8906,7 +8950,7 @@
         <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -8917,7 +8961,7 @@
         <v>324</v>
       </c>
       <c r="B26" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
@@ -8929,7 +8973,7 @@
         <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" t="s">
@@ -8941,7 +8985,7 @@
         <v>319</v>
       </c>
       <c r="B28" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" t="s">
@@ -8956,7 +9000,7 @@
         <v>316</v>
       </c>
       <c r="B29" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" t="s">
@@ -8974,25 +9018,25 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3730026-B4AF-4349-A882-83AADCA86184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="25" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9001,14 +9045,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -9030,7 +9074,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -9042,10 +9086,10 @@
         <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H4" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9053,17 +9097,17 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9071,116 +9115,116 @@
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H6" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="33">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34">
       <c r="A7" s="14" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B7" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
         <v>336</v>
       </c>
       <c r="G7" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="H7" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34">
       <c r="A8" s="14" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B8" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E8" t="s">
         <v>328</v>
       </c>
       <c r="G8" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="H8" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="33">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34">
       <c r="A9" s="14" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B9" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33">
+    <row r="10" spans="1:8" ht="34">
       <c r="A10" s="14" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B10" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33">
+    <row r="11" spans="1:8" ht="34">
       <c r="A11" s="14" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="B11" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33">
+    <row r="12" spans="1:8" ht="34">
       <c r="A12" s="14" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="B12" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E12" t="s">
         <v>328</v>
@@ -9188,14 +9232,14 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="14" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="B13" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E13" t="s">
         <v>336</v>
@@ -9203,14 +9247,14 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B14" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -9218,14 +9262,14 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B15" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E15" t="s">
         <v>336</v>
@@ -9233,14 +9277,14 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="14" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="B16" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E16" t="s">
         <v>328</v>
@@ -9248,14 +9292,14 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B17" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E17" t="s">
         <v>336</v>
@@ -9263,14 +9307,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B18" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E18" t="s">
         <v>330</v>
@@ -9278,14 +9322,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="16" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B19" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E19" t="s">
         <v>336</v>
@@ -9293,14 +9337,14 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B20" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E20" t="s">
         <v>330</v>
@@ -9308,14 +9352,14 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="16" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E21" t="s">
         <v>336</v>
@@ -9323,27 +9367,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="16" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B22" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D22" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E22" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33">
+    <row r="23" spans="1:5" ht="34">
       <c r="A23" s="14" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B23" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D23" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E23" t="s">
         <v>336</v>
@@ -9351,28 +9395,28 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B24" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E24" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="33">
+    <row r="25" spans="1:5" ht="34">
       <c r="A25" s="14" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B25" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D25" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E25" t="s">
         <v>336</v>
@@ -9380,14 +9424,14 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B26" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -9395,14 +9439,14 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B27" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E27" t="s">
         <v>336</v>
@@ -9410,14 +9454,14 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B28" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E28" t="s">
         <v>330</v>
@@ -9425,14 +9469,14 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="14" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B29" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E29" t="s">
         <v>336</v>
@@ -9440,13 +9484,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B30" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D30" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E30" t="s">
         <v>328</v>
@@ -9454,13 +9498,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B31" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D31" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E31" t="s">
         <v>336</v>
@@ -9468,55 +9512,55 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B32" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D32" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E32" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="34">
+      <c r="A33" s="14" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="33">
-      <c r="A33" s="14" t="s">
-        <v>765</v>
-      </c>
       <c r="B33" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D33" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E33" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="33">
+    <row r="34" spans="1:5" ht="34">
       <c r="A34" s="14" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B34" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D34" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E34" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B35" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D35" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E35" t="s">
         <v>336</v>
@@ -9524,52 +9568,52 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B36" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D36" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E36" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B37" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D37" t="s">
         <v>364</v>
       </c>
       <c r="E37" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B38" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D38" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E38" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="33">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34">
       <c r="A39" s="14" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B39" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D39" t="s">
         <v>337</v>
@@ -9578,74 +9622,74 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.45" customHeight="1">
+    <row r="40" spans="1:5" ht="17.5" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B40" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D40" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E40" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.45" customHeight="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.5" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B41" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D41" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E41" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.45" customHeight="1">
+    <row r="42" spans="1:5" ht="17.5" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B42" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D42" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E42" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="34">
+      <c r="A43" s="14" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="33">
-      <c r="A43" s="14" t="s">
-        <v>742</v>
-      </c>
       <c r="B43" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D43" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E43" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.45" customHeight="1">
+    <row r="44" spans="1:5" ht="17.5" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B44" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D44" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E44" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9653,7 +9697,7 @@
         <v>327</v>
       </c>
       <c r="B45" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -9664,7 +9708,7 @@
         <v>324</v>
       </c>
       <c r="B46" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -9675,7 +9719,7 @@
         <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -9686,7 +9730,7 @@
         <v>319</v>
       </c>
       <c r="B48" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -9700,7 +9744,7 @@
         <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D49" t="s">
         <v>43</v>
@@ -9717,25 +9761,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B394A9-90D1-45BF-A525-EFB99E07F413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.25" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="31.26953125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9744,14 +9788,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -9773,7 +9817,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>35</v>
@@ -9784,10 +9828,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B5" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" t="s">
@@ -9796,10 +9840,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B6" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" t="s">
@@ -9808,10 +9852,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B7" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" t="s">
@@ -9820,10 +9864,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B8" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" t="s">
@@ -9832,10 +9876,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B9" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" t="s">
@@ -9844,10 +9888,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B10" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" t="s">
@@ -9866,25 +9910,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F87E2B-E716-4229-95FA-30ECB8C50783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9893,14 +9937,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -9922,7 +9966,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>35</v>
@@ -9933,25 +9977,25 @@
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1">
       <c r="A5" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B6" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" t="s">
@@ -9960,10 +10004,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B7" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" t="s">
@@ -9972,10 +10016,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B8" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" t="s">
@@ -9984,10 +10028,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B9" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" t="s">
@@ -9996,10 +10040,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B10" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" t="s">
@@ -10017,19 +10061,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="1" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10050,7 +10094,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10147,20 +10191,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00A08E0-8C7E-4ECB-B481-93A833BA383B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10181,7 +10225,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10214,14 +10258,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10367,20 +10411,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6ED180A-AB21-4D11-BC3E-CE4571EB9B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="14.7265625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10401,7 +10445,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10653,19 +10697,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54A54B2-D6CC-459E-B224-D9F816FAE6DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10686,7 +10730,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10849,20 +10893,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8D41AF-0254-4BFF-8D5A-90D88B0556BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="27.90625" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10883,7 +10927,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="49.5">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\CityNavigation\ISTI_CityNavigation\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC60F0BB-942B-4B97-86F8-DC6809AC23F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="778" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
     <sheet name="Health" sheetId="34" r:id="rId21"/>
     <sheet name="Education" sheetId="35" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,6 +44,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="905">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2694,62 +2701,22 @@
     <t>15歲以上民間人口之教育程度結構-高中(職)-資料年度</t>
   </si>
   <si>
-    <t>電腦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Edu_15upJSDownRate</t>
   </si>
   <si>
     <t>15歲以上民間人口之教育程度結構-國中及以下</t>
   </si>
   <si>
-    <t>大學</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Edu_15upJSDownRateYear</t>
   </si>
   <si>
     <t>15歲以上民間人口之教育程度結構-國中及以下-資料年度</t>
   </si>
   <si>
-    <t>高中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Edu_CityName</t>
   </si>
   <si>
-    <t>國中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Edu_CityNo</t>
-  </si>
-  <si>
-    <t>國小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Edu_ID</t>
@@ -3085,12 +3052,19 @@
   <si>
     <t>Tra_CarRoadOutsideParkSpace</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否含全區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_AllArea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -3288,7 +3262,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3559,23 +3533,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3596,18 +3570,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3679,7 +3653,7 @@
         <v>土地人口</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3688,7 +3662,7 @@
         <v>觀光</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3697,7 +3671,7 @@
         <v>交通</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3706,7 +3680,7 @@
         <v>農業</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3715,7 +3689,7 @@
         <v>市長副市長</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3724,7 +3698,7 @@
         <v>產業</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3733,7 +3707,7 @@
         <v>零售</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3742,7 +3716,7 @@
         <v>安全</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3751,7 +3725,7 @@
         <v>能源</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3760,7 +3734,7 @@
         <v>健康</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3769,7 +3743,7 @@
         <v>教育</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -3778,27 +3752,27 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" location="CodeTable!A1" display="CodeTable"/>
-    <hyperlink ref="B2" location="Member!A1" display="Member"/>
-    <hyperlink ref="B6" location="BudgetExecution!A1" display="BudgetExecution"/>
-    <hyperlink ref="B7" location="CitySubMoney!A1" display="CitySubMoney"/>
-    <hyperlink ref="B8" location="ServiceSubMoney!A1" display="ServiceSubMoney"/>
-    <hyperlink ref="B9" location="CategorySubMoney!A1" display="CategorySubMoney"/>
-    <hyperlink ref="B10" location="CitySummaryTable!A1" display="CitySummaryTable"/>
-    <hyperlink ref="B11" location="CityPlanTable!A1" display="CityPlanTable"/>
-    <hyperlink ref="B12" location="Population!A1" display="Population"/>
-    <hyperlink ref="B13" location="Travel!A1" display="Travel"/>
-    <hyperlink ref="B14" location="Traffic!A1" display="Traffic"/>
-    <hyperlink ref="B15" location="Farming!A1" display="Farming"/>
-    <hyperlink ref="B16" location="Mayor!A1" display="Mayor"/>
-    <hyperlink ref="B17" location="Industry!A1" display="Industry"/>
-    <hyperlink ref="B18" location="Retail!A1" display="Retail"/>
-    <hyperlink ref="B19" location="Safety!A1" display="Safety"/>
-    <hyperlink ref="B20" location="Energy!A1" display="Energy"/>
-    <hyperlink ref="B21" location="Health!A1" display="Health"/>
-    <hyperlink ref="B22" location="Education!A1" display="Education"/>
-    <hyperlink ref="B3" location="Member_Log!A1" display="Member_Log"/>
-    <hyperlink ref="B4" location="ImportData_Log!A1" display="ImportData_Log"/>
+    <hyperlink ref="B5" location="CodeTable!A1" display="CodeTable" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" location="Member!A1" display="Member" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" location="BudgetExecution!A1" display="BudgetExecution" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" location="CitySubMoney!A1" display="CitySubMoney" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B8" location="ServiceSubMoney!A1" display="ServiceSubMoney" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B9" location="CategorySubMoney!A1" display="CategorySubMoney" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B10" location="CitySummaryTable!A1" display="CitySummaryTable" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B11" location="CityPlanTable!A1" display="CityPlanTable" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B12" location="Population!A1" display="Population" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B13" location="Travel!A1" display="Travel" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B14" location="Traffic!A1" display="Traffic" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B15" location="Farming!A1" display="Farming" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B16" location="Mayor!A1" display="Mayor" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B17" location="Industry!A1" display="Industry" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B18" location="Retail!A1" display="Retail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B19" location="Safety!A1" display="Safety" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B20" location="Energy!A1" display="Energy" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B21" location="Health!A1" display="Health" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B22" location="Education!A1" display="Education" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B3" location="Member_Log!A1" display="Member_Log" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B4" location="ImportData_Log!A1" display="ImportData_Log" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3806,20 +3780,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="33.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3840,7 +3814,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -3961,10 +3935,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B13" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="D13" t="s">
         <v>278</v>
@@ -3972,10 +3946,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B14" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="D14" t="s">
         <v>278</v>
@@ -3983,10 +3957,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="B15" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -3994,10 +3968,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="B16" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4027,43 +4001,43 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>903</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>904</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -4071,10 +4045,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -4082,10 +4056,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -4093,10 +4067,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -4104,10 +4078,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -4115,10 +4089,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -4126,10 +4100,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -4137,10 +4111,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -4148,10 +4122,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -4159,10 +4133,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -4170,10 +4144,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -4181,10 +4155,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -4192,10 +4166,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -4203,10 +4177,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -4214,10 +4188,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -4225,10 +4199,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -4236,10 +4210,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -4247,10 +4221,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -4258,10 +4232,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
@@ -4269,10 +4243,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
         <v>4</v>
@@ -4280,10 +4254,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
         <v>4</v>
@@ -4291,10 +4265,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
         <v>4</v>
@@ -4302,10 +4276,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
         <v>4</v>
@@ -4313,10 +4287,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -4324,10 +4298,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -4335,10 +4309,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -4346,10 +4320,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -4357,10 +4331,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
@@ -4368,10 +4342,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -4379,10 +4353,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -4390,10 +4364,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -4401,10 +4375,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -4412,10 +4386,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -4423,10 +4397,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -4434,10 +4408,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -4445,10 +4419,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -4456,10 +4430,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -4467,10 +4441,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -4478,10 +4452,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -4489,10 +4463,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -4500,10 +4474,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -4511,10 +4485,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
         <v>4</v>
@@ -4522,10 +4496,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64" t="s">
         <v>4</v>
@@ -4533,10 +4507,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -4544,10 +4518,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
         <v>4</v>
@@ -4555,32 +4529,32 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
         <v>4</v>
@@ -4588,23 +4562,34 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
         <v>33</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>217</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4620,20 +4605,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="32.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4654,7 +4639,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -4797,10 +4782,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="B15" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -4808,10 +4793,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="B16" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4819,10 +4804,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="B17" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="D17" t="s">
         <v>278</v>
@@ -4830,10 +4815,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="B18" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="D18" t="s">
         <v>278</v>
@@ -4863,43 +4848,43 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>903</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>904</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
@@ -4907,10 +4892,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -4918,10 +4903,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
@@ -4929,32 +4914,32 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -4962,23 +4947,34 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>302</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4994,19 +4990,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5028,7 +5024,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -5148,7 +5144,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="B11" t="s">
         <v>341</v>
@@ -5178,10 +5174,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20" t="s">
@@ -5208,10 +5204,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20" t="s">
@@ -5223,7 +5219,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>333</v>
@@ -5238,10 +5234,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="20" t="s">
@@ -5256,7 +5252,7 @@
         <v>332</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="20" t="s">
@@ -5268,10 +5264,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="20" t="s">
@@ -5283,10 +5279,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
@@ -5298,10 +5294,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20" t="s">
@@ -5316,7 +5312,7 @@
         <v>331</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20" t="s">
@@ -5328,10 +5324,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
@@ -5343,10 +5339,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="B24" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="D24" t="s">
         <v>329</v>
@@ -5427,20 +5423,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="45.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5461,7 +5457,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -5753,20 +5749,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="54.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5787,7 +5783,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -5907,10 +5903,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="B11" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
@@ -5922,10 +5918,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="B12" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
@@ -5937,10 +5933,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B13" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
@@ -5952,10 +5948,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="B14" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" t="s">
@@ -6214,18 +6210,18 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6247,7 +6243,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -6675,20 +6671,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="54.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6709,7 +6705,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -6947,19 +6943,19 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="60.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6981,7 +6977,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -7231,19 +7227,19 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7265,7 +7261,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -7599,20 +7595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7633,7 +7629,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -8051,20 +8047,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E18"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8085,7 +8081,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -8290,20 +8286,20 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8324,7 +8320,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -8574,19 +8570,19 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8607,7 +8603,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="51">
+    <row r="3" spans="1:8" ht="48.6">
       <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
@@ -9018,41 +9014,41 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="32.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:8" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="12" t="s">
         <v>20</v>
       </c>
@@ -9069,12 +9065,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:5">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -9085,55 +9081,37 @@
       <c r="E4" t="s">
         <v>354</v>
       </c>
-      <c r="G4" t="s">
-        <v>825</v>
-      </c>
-      <c r="H4" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="14" t="s">
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>822</v>
-      </c>
-      <c r="H5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
         <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
-        <v>819</v>
-      </c>
-      <c r="H6" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="34">
+    </row>
+    <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="14" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B7" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -9142,19 +9120,13 @@
       <c r="E7" t="s">
         <v>336</v>
       </c>
-      <c r="G7" t="s">
-        <v>815</v>
-      </c>
-      <c r="H7" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="34">
+    </row>
+    <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="14" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B8" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
@@ -9163,14 +9135,8 @@
       <c r="E8" t="s">
         <v>328</v>
       </c>
-      <c r="G8" t="s">
-        <v>811</v>
-      </c>
-      <c r="H8" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="34">
+    </row>
+    <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="14" t="s">
         <v>809</v>
       </c>
@@ -9185,7 +9151,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34">
+    <row r="10" spans="1:5" ht="32.4">
       <c r="A10" s="14" t="s">
         <v>807</v>
       </c>
@@ -9200,7 +9166,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34">
+    <row r="11" spans="1:5" ht="32.4">
       <c r="A11" s="14" t="s">
         <v>805</v>
       </c>
@@ -9215,7 +9181,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34">
+    <row r="12" spans="1:5" ht="32.4">
       <c r="A12" s="14" t="s">
         <v>803</v>
       </c>
@@ -9230,7 +9196,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
         <v>801</v>
       </c>
@@ -9245,7 +9211,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
         <v>799</v>
       </c>
@@ -9260,7 +9226,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
         <v>797</v>
       </c>
@@ -9275,7 +9241,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
         <v>795</v>
       </c>
@@ -9379,7 +9345,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34">
+    <row r="23" spans="1:5" ht="32.4">
       <c r="A23" s="14" t="s">
         <v>781</v>
       </c>
@@ -9408,7 +9374,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="34">
+    <row r="25" spans="1:5" ht="32.4">
       <c r="A25" s="14" t="s">
         <v>777</v>
       </c>
@@ -9467,7 +9433,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="32.4">
       <c r="A29" s="14" t="s">
         <v>769</v>
       </c>
@@ -9524,7 +9490,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="34">
+    <row r="33" spans="1:5" ht="32.4">
       <c r="A33" s="14" t="s">
         <v>761</v>
       </c>
@@ -9538,7 +9504,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="34">
+    <row r="34" spans="1:5" ht="32.4">
       <c r="A34" s="14" t="s">
         <v>759</v>
       </c>
@@ -9608,7 +9574,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="34">
+    <row r="39" spans="1:5" ht="32.4">
       <c r="A39" s="14" t="s">
         <v>746</v>
       </c>
@@ -9622,7 +9588,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.5" customHeight="1">
+    <row r="40" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>744</v>
       </c>
@@ -9636,7 +9602,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.5" customHeight="1">
+    <row r="41" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>742</v>
       </c>
@@ -9650,7 +9616,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.5" customHeight="1">
+    <row r="42" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>740</v>
       </c>
@@ -9664,7 +9630,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="34">
+    <row r="43" spans="1:5" ht="32.4">
       <c r="A43" s="14" t="s">
         <v>738</v>
       </c>
@@ -9678,7 +9644,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.5" customHeight="1">
+    <row r="44" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>736</v>
       </c>
@@ -9761,25 +9727,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.26953125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="31.21875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9788,14 +9754,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -9817,7 +9783,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>35</v>
@@ -9828,10 +9794,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B5" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" t="s">
@@ -9840,10 +9806,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B6" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" t="s">
@@ -9852,10 +9818,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B7" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" t="s">
@@ -9864,10 +9830,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B8" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" t="s">
@@ -9876,10 +9842,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B9" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" t="s">
@@ -9888,10 +9854,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B10" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" t="s">
@@ -9910,25 +9876,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9937,14 +9903,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -9966,7 +9932,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>35</v>
@@ -9977,25 +9943,25 @@
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1">
       <c r="A5" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B5" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B6" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" t="s">
@@ -10004,10 +9970,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>862</v>
+      </c>
+      <c r="B7" t="s">
         <v>872</v>
-      </c>
-      <c r="B7" t="s">
-        <v>882</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" t="s">
@@ -10016,10 +9982,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>863</v>
+      </c>
+      <c r="B8" t="s">
         <v>873</v>
-      </c>
-      <c r="B8" t="s">
-        <v>883</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" t="s">
@@ -10028,10 +9994,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="B9" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" t="s">
@@ -10040,10 +10006,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B10" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" t="s">
@@ -10061,19 +10027,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="1" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10094,7 +10060,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10191,20 +10157,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10225,7 +10191,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10258,14 +10224,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="B5" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10411,20 +10377,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.7265625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="14.77734375" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10445,7 +10411,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10697,19 +10663,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E15"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10730,7 +10696,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -10893,20 +10859,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A15"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27.90625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="27.88671875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10927,7 +10893,7 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebProject\CityNavigation\ISTI_CityNavigation\Docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC60F0BB-942B-4B97-86F8-DC6809AC23F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13176" tabRatio="778" firstSheet="7" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -36,7 +30,7 @@
     <sheet name="Health" sheetId="34" r:id="rId21"/>
     <sheet name="Education" sheetId="35" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="906">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3059,12 +3053,16 @@
   </si>
   <si>
     <t>CP_AllArea</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="12"/>
@@ -3262,7 +3260,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3533,14 +3531,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3752,27 +3750,27 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" location="CodeTable!A1" display="CodeTable" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" location="Member!A1" display="Member" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B6" location="BudgetExecution!A1" display="BudgetExecution" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B7" location="CitySubMoney!A1" display="CitySubMoney" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B8" location="ServiceSubMoney!A1" display="ServiceSubMoney" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B9" location="CategorySubMoney!A1" display="CategorySubMoney" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B10" location="CitySummaryTable!A1" display="CitySummaryTable" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B11" location="CityPlanTable!A1" display="CityPlanTable" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B12" location="Population!A1" display="Population" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B13" location="Travel!A1" display="Travel" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B14" location="Traffic!A1" display="Traffic" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B15" location="Farming!A1" display="Farming" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B16" location="Mayor!A1" display="Mayor" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B17" location="Industry!A1" display="Industry" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B18" location="Retail!A1" display="Retail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B19" location="Safety!A1" display="Safety" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B20" location="Energy!A1" display="Energy" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B21" location="Health!A1" display="Health" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B22" location="Education!A1" display="Education" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B3" location="Member_Log!A1" display="Member_Log" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B4" location="ImportData_Log!A1" display="ImportData_Log" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B5" location="CodeTable!A1" display="CodeTable"/>
+    <hyperlink ref="B2" location="Member!A1" display="Member"/>
+    <hyperlink ref="B6" location="BudgetExecution!A1" display="BudgetExecution"/>
+    <hyperlink ref="B7" location="CitySubMoney!A1" display="CitySubMoney"/>
+    <hyperlink ref="B8" location="ServiceSubMoney!A1" display="ServiceSubMoney"/>
+    <hyperlink ref="B9" location="CategorySubMoney!A1" display="CategorySubMoney"/>
+    <hyperlink ref="B10" location="CitySummaryTable!A1" display="CitySummaryTable"/>
+    <hyperlink ref="B11" location="CityPlanTable!A1" display="CityPlanTable"/>
+    <hyperlink ref="B12" location="Population!A1" display="Population"/>
+    <hyperlink ref="B13" location="Travel!A1" display="Travel"/>
+    <hyperlink ref="B14" location="Traffic!A1" display="Traffic"/>
+    <hyperlink ref="B15" location="Farming!A1" display="Farming"/>
+    <hyperlink ref="B16" location="Mayor!A1" display="Mayor"/>
+    <hyperlink ref="B17" location="Industry!A1" display="Industry"/>
+    <hyperlink ref="B18" location="Retail!A1" display="Retail"/>
+    <hyperlink ref="B19" location="Safety!A1" display="Safety"/>
+    <hyperlink ref="B20" location="Energy!A1" display="Energy"/>
+    <hyperlink ref="B21" location="Health!A1" display="Health"/>
+    <hyperlink ref="B22" location="Education!A1" display="Education"/>
+    <hyperlink ref="B3" location="Member_Log!A1" display="Member_Log"/>
+    <hyperlink ref="B4" location="ImportData_Log!A1" display="ImportData_Log"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3780,11 +3778,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.44140625" defaultRowHeight="16.2"/>
@@ -4605,7 +4603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4990,7 +4988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5423,7 +5421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5749,7 +5747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6210,7 +6208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6671,7 +6669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6943,7 +6941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7227,7 +7225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7595,7 +7593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8047,7 +8045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8286,7 +8284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8570,7 +8568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9014,11 +9012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -9220,7 +9218,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" t="s">
-        <v>563</v>
+        <v>905</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -9250,7 +9248,7 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>563</v>
+        <v>905</v>
       </c>
       <c r="E16" t="s">
         <v>328</v>
@@ -9397,7 +9395,7 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
-        <v>563</v>
+        <v>905</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -9456,7 +9454,7 @@
         <v>766</v>
       </c>
       <c r="D30" t="s">
-        <v>563</v>
+        <v>905</v>
       </c>
       <c r="E30" t="s">
         <v>328</v>
@@ -9512,7 +9510,7 @@
         <v>758</v>
       </c>
       <c r="D34" t="s">
-        <v>563</v>
+        <v>905</v>
       </c>
       <c r="E34" t="s">
         <v>757</v>
@@ -9568,7 +9566,7 @@
         <v>748</v>
       </c>
       <c r="D38" t="s">
-        <v>563</v>
+        <v>905</v>
       </c>
       <c r="E38" t="s">
         <v>747</v>
@@ -9727,7 +9725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9876,7 +9874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10027,7 +10025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10157,7 +10155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10377,7 +10375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10663,7 +10661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10859,7 +10857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13176" tabRatio="778" firstSheet="7" activeTab="21"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13176" tabRatio="778" firstSheet="9" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="910">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1146,1396 +1146,1340 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>單位:人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65歲以上老年人口數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-64歲青壯年人口數</t>
+  </si>
+  <si>
+    <t>0-14歲幼年人口數</t>
+  </si>
+  <si>
+    <t>民國年</t>
+  </si>
+  <si>
+    <t>nvarchar(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年底戶籍總人口數成長率</t>
+  </si>
+  <si>
+    <t>民國年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_PeopleTotalPercentYear</t>
+  </si>
+  <si>
+    <t>P_PeopleTotal</t>
+  </si>
+  <si>
+    <t>年底戶籍總人口數</t>
+  </si>
+  <si>
+    <t>P_TotalYear</t>
+  </si>
+  <si>
+    <t>年底戶籍總人口數-資料年度</t>
+  </si>
+  <si>
+    <t>km2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Area</t>
+  </si>
+  <si>
+    <t>土地面積</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_AreaYear</t>
+  </si>
+  <si>
+    <t>土地面積-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_CityName</t>
+  </si>
+  <si>
+    <t>縣市名稱</t>
+  </si>
+  <si>
+    <t>P_CityNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水序號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱：Population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Version</t>
+  </si>
+  <si>
+    <t>T_Status</t>
+  </si>
+  <si>
+    <t>T_CreateName</t>
+  </si>
+  <si>
+    <t>T_CreateID</t>
+  </si>
+  <si>
+    <t>T_CreateDate</t>
+  </si>
+  <si>
+    <t>單位:元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HotelAvgPrice</t>
+  </si>
+  <si>
+    <t>觀光旅館平均房價</t>
+  </si>
+  <si>
+    <t>T_HotelAvgPriceYear</t>
+  </si>
+  <si>
+    <t>觀光旅館平均房價-資料年度</t>
+  </si>
+  <si>
+    <t>單位:間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HotelRooms</t>
+  </si>
+  <si>
+    <t>觀光旅館房間數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HotelRoomsYear</t>
+  </si>
+  <si>
+    <t>觀光旅館房間數-資料年度</t>
+  </si>
+  <si>
+    <t>單位:家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_Hotels</t>
+  </si>
+  <si>
+    <t>觀光旅館家數</t>
+  </si>
+  <si>
+    <t>T_HotelsYear</t>
+  </si>
+  <si>
+    <t>觀光旅館家數-資料年度</t>
+  </si>
+  <si>
+    <t>單位:人次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PointPeople</t>
+  </si>
+  <si>
+    <t>觀光遊憩據點(縣市)人次統計</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EX:107年(統計至107年11月) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PointYearDesc</t>
+  </si>
+  <si>
+    <t>觀光遊憩據點(縣市)人次統計-資料年度敘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_PointYear</t>
+  </si>
+  <si>
+    <t>觀光遊憩據點(縣市)人次統計-資料年度</t>
+  </si>
+  <si>
+    <t>T_HotelUseRate</t>
+  </si>
+  <si>
+    <t>觀光旅館住用率</t>
+  </si>
+  <si>
+    <t>T_HotelUseYear</t>
+  </si>
+  <si>
+    <t>觀光旅館住用率-資料年度</t>
+  </si>
+  <si>
+    <t>T_CityName</t>
+  </si>
+  <si>
+    <t>T_CityNo</t>
+  </si>
+  <si>
+    <t>T_ID</t>
+  </si>
+  <si>
+    <t>資料表名稱：Travel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CreateName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CreateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CreateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>Tra_100KNumberOfCasualties</t>
+  </si>
+  <si>
+    <t>每十萬人道路交通事故死傷人數</t>
+  </si>
+  <si>
+    <t>Tra_100KNumberOfCasualtiesYear</t>
+  </si>
+  <si>
+    <t>每十萬人道路交通事故死傷人數-資料年度</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>Tra_10KMotoIncidentsNum</t>
+  </si>
+  <si>
+    <t>每萬輛機動車肇事數</t>
+  </si>
+  <si>
+    <t>Tra_10KMotoIncidentsNumYear</t>
+  </si>
+  <si>
+    <t>每萬輛機動車肇事數-資料年度</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>每百人擁有汽車數成長率</t>
+  </si>
+  <si>
+    <t>ex:105-106年成長率</t>
+  </si>
+  <si>
+    <t>Tra_100HaveCarRateYearDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每百人擁有汽車數成長率-資料年度敘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輛</t>
+  </si>
+  <si>
+    <t>Tra_100HaveCar</t>
+  </si>
+  <si>
+    <t>每百人擁有汽車數</t>
+  </si>
+  <si>
+    <t>Tra_100HaveCarYear</t>
+  </si>
+  <si>
+    <t>每百人擁有汽車數-資料年度</t>
+  </si>
+  <si>
+    <t>Tra_CarCount</t>
+  </si>
+  <si>
+    <t>汽車登記數</t>
+  </si>
+  <si>
+    <t>Tra_CarCountYear</t>
+  </si>
+  <si>
+    <t>汽車登記數-資料年度</t>
+  </si>
+  <si>
+    <t>位／萬輛</t>
+  </si>
+  <si>
+    <t>每萬輛小型車擁有路外及路邊停車位數</t>
+  </si>
+  <si>
+    <t>Tra_10KHaveCarParkYear</t>
+  </si>
+  <si>
+    <t>每萬輛小型車擁有路外及路邊停車位數-資料年度</t>
+  </si>
+  <si>
+    <t>個</t>
+  </si>
+  <si>
+    <t>分鐘</t>
+  </si>
+  <si>
+    <t>Tra_CarParkTime</t>
+  </si>
+  <si>
+    <t>自小客車在居家附近每次尋找停車位時間</t>
+  </si>
+  <si>
+    <t>Tra_CarParkTimeYear</t>
+  </si>
+  <si>
+    <t>自小客車在居家附近每次尋找停車位時間-資料年度</t>
+  </si>
+  <si>
+    <t>通勤學民眾運具次數之公共運具市佔率</t>
+  </si>
+  <si>
+    <t>Tra_PublicTransportRateYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通勤學民眾運具次數之公共運具市佔率-資料年度</t>
+  </si>
+  <si>
+    <t>Tra_CityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CityNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱：Traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_CreateName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_CreateID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_CreateDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:千元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_FarmEmploymentOutputValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均農業從業人口產值</t>
+  </si>
+  <si>
+    <t>Fa_FarmEmploymentOutputValueYear</t>
+  </si>
+  <si>
+    <t>平均農業從業人口產值-資料年度</t>
+  </si>
+  <si>
+    <t>Fa_Farmer</t>
+  </si>
+  <si>
+    <t>農戶人口數</t>
+  </si>
+  <si>
+    <t>Fa_FarmerYear</t>
+  </si>
+  <si>
+    <t>農戶人口數-資料年度</t>
+  </si>
+  <si>
+    <t>EX:105-106年</t>
+  </si>
+  <si>
+    <t>Fa_FarmingOutputRateYearDesc</t>
+  </si>
+  <si>
+    <t>農業產值成長率-資料年度敘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_FarmingOutputValue</t>
+  </si>
+  <si>
+    <t>農業產值</t>
+  </si>
+  <si>
+    <t>Fa_FarmingOutputValueYear</t>
+  </si>
+  <si>
+    <t>農業產值-資料年度</t>
+  </si>
+  <si>
+    <t>Fa_FacilityLoss</t>
+  </si>
+  <si>
+    <t>農林漁牧天然災害設施(備)損失</t>
+  </si>
+  <si>
+    <t>Fa_FacilityLossYear</t>
+  </si>
+  <si>
+    <t>農林漁牧天然災害設施(備)損失-資料年度</t>
+  </si>
+  <si>
+    <t>Fa_AllLoss</t>
+  </si>
+  <si>
+    <t>農林漁牧天然災害產物損失</t>
+  </si>
+  <si>
+    <t>Fa_AllLossYear</t>
+  </si>
+  <si>
+    <t>農林漁牧天然災害產物損失-資料年度</t>
+  </si>
+  <si>
+    <t>Fa_ForestLoss</t>
+  </si>
+  <si>
+    <t>臺閩地區林業天然災害產物損失</t>
+  </si>
+  <si>
+    <t>Fa_ForestLossYear</t>
+  </si>
+  <si>
+    <t>臺閩地區林業天然災害產物損失-資料年度</t>
+  </si>
+  <si>
+    <t>Fa_FishLoss</t>
+  </si>
+  <si>
+    <t>天然災害漁業產物損失</t>
+  </si>
+  <si>
+    <t>Fa_FishLossYear</t>
+  </si>
+  <si>
+    <t>天然災害漁業產物損失-資料年度</t>
+  </si>
+  <si>
+    <t>Fa_AnimalLoss</t>
+  </si>
+  <si>
+    <t>然災害畜牧業產物損失</t>
+  </si>
+  <si>
+    <t>Fa_AnimalLossYear</t>
+  </si>
+  <si>
+    <t>天然災害畜牧業產物損失-資料年度</t>
+  </si>
+  <si>
+    <t>Fa_FarmingLoss</t>
+  </si>
+  <si>
+    <t>臺閩地區農業天然災害產物損失</t>
+  </si>
+  <si>
+    <t>臺閩地區農業天然災害產物損失-資料年度</t>
+  </si>
+  <si>
+    <t>Fa_CityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_CityNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱：Farming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR_Version</t>
+  </si>
+  <si>
+    <t>MR_Status</t>
+  </si>
+  <si>
+    <t>MR_CreateName</t>
+  </si>
+  <si>
+    <t>MR_CreateID</t>
+  </si>
+  <si>
+    <t>MR_CreateDate</t>
+  </si>
+  <si>
+    <t>MR_AdArea</t>
+  </si>
+  <si>
+    <t>行政區數</t>
+  </si>
+  <si>
+    <t>nvarchar(3)</t>
+  </si>
+  <si>
+    <t>MR_AdAreaYear</t>
+  </si>
+  <si>
+    <t>行政區數-資料年度</t>
+  </si>
+  <si>
+    <t>MR_PoliticalParty</t>
+  </si>
+  <si>
+    <t>推薦政黨</t>
+  </si>
+  <si>
+    <t>MR_PoliticalPartyYear</t>
+  </si>
+  <si>
+    <t>推薦政黨-資料年度</t>
+  </si>
+  <si>
+    <t>MR_ViceMayor</t>
+  </si>
+  <si>
+    <t>副縣/市長</t>
+  </si>
+  <si>
+    <t>MR_ViceMayorYear</t>
+  </si>
+  <si>
+    <t>副縣/市長-資料年度</t>
+  </si>
+  <si>
+    <t>MR_Mayor</t>
+  </si>
+  <si>
+    <t>直轄市/縣市長</t>
+  </si>
+  <si>
+    <t>MR_MayorYear</t>
+  </si>
+  <si>
+    <t>直轄市/縣市長-資料年度</t>
+  </si>
+  <si>
+    <t>MR_CityName</t>
+  </si>
+  <si>
+    <t>MR_CityNo</t>
+  </si>
+  <si>
+    <t>MR_ID</t>
+  </si>
+  <si>
+    <t>資料表名稱：Mayor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市長副市長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ind_Version</t>
+  </si>
+  <si>
+    <t>Ind_Status</t>
+  </si>
+  <si>
+    <t>Ind_CreateName</t>
+  </si>
+  <si>
+    <t>Ind_CreateID</t>
+  </si>
+  <si>
+    <t>Ind_CreateDate</t>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>Ind_Sales</t>
+  </si>
+  <si>
+    <t>營利事業銷售額</t>
+  </si>
+  <si>
+    <t>Ind_SalesYear</t>
+  </si>
+  <si>
+    <t>營利事業銷售額-資料年度</t>
+  </si>
+  <si>
+    <t>Ind_Income</t>
+  </si>
+  <si>
+    <t>工廠營業收入</t>
+  </si>
+  <si>
+    <t>Ind_IncomeYear</t>
+  </si>
+  <si>
+    <t>工廠營業收入-資料年度</t>
+  </si>
+  <si>
+    <t>Ind_Factory</t>
+  </si>
+  <si>
+    <t>營運中工廠家數</t>
+  </si>
+  <si>
+    <t>Ind_FactoryYear</t>
+  </si>
+  <si>
+    <t>營運中工廠家數-資料年度</t>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>Ind_Business</t>
+  </si>
+  <si>
+    <t>形成群聚之產業(依工研院產科國際所群聚資料)</t>
+  </si>
+  <si>
+    <t>Ind_BusinessYear</t>
+  </si>
+  <si>
+    <t>形成群聚之產業(依工研院產科國際所群聚資料)-資料年度</t>
+  </si>
+  <si>
+    <t>Ind_CityName</t>
+  </si>
+  <si>
+    <t>Ind_CityNo</t>
+  </si>
+  <si>
+    <t>Ind_ID</t>
+  </si>
+  <si>
+    <t>資料表名稱：Industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>產業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re_Version</t>
+  </si>
+  <si>
+    <t>Re_Status</t>
+  </si>
+  <si>
+    <t>Re_CreateName</t>
+  </si>
+  <si>
+    <t>Re_CreateID</t>
+  </si>
+  <si>
+    <t>Re_CreateDate</t>
+  </si>
+  <si>
+    <t>Re_RetailBusinessAvgSales</t>
+  </si>
+  <si>
+    <t>零售業營利事業平均每家銷售額</t>
+  </si>
+  <si>
+    <t>Re_RetailBusinessAvgSalesYear</t>
+  </si>
+  <si>
+    <t>零售業營利事業平均每家銷售額-資料年度</t>
+  </si>
+  <si>
     <t>nvarchar(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售業營利事業銷售額成長率</t>
+  </si>
+  <si>
+    <t>EX: 106-107年</t>
+  </si>
+  <si>
+    <t>Re_RetailBusinessSalesRateYearDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售業營利事業銷售額成長率-年度敘述</t>
+  </si>
+  <si>
+    <t>Re_RetailBusinessSales</t>
+  </si>
+  <si>
+    <t>零售業營利事業銷售額</t>
+  </si>
+  <si>
+    <t>Re_RetailBusinessSalesYear</t>
+  </si>
+  <si>
+    <t>Re_StreetVendorAvgIncome</t>
+  </si>
+  <si>
+    <t>攤販全年平均收入</t>
+  </si>
+  <si>
+    <t>Re_StreetVendorAvgIncomeYear</t>
+  </si>
+  <si>
+    <t>攤販全年平均收入-資料年度</t>
+  </si>
+  <si>
+    <t>Re_StreetVendorIncome</t>
+  </si>
+  <si>
+    <t>攤販全年收入</t>
+  </si>
+  <si>
+    <t>Re_StreetVendorIncomeYear</t>
+  </si>
+  <si>
+    <t>攤販全年收入-資料年度</t>
+  </si>
+  <si>
+    <t>Re_StreetVendor</t>
+  </si>
+  <si>
+    <t>攤販從業人數</t>
+  </si>
+  <si>
+    <t>Re_Re_StreetVendorYear</t>
+  </si>
+  <si>
+    <t>攤販從業人數-資料年度</t>
+  </si>
+  <si>
+    <t>Re_StreetStand</t>
+  </si>
+  <si>
+    <t>攤販經營家數</t>
+  </si>
+  <si>
+    <t>Re_StreetStandYear</t>
+  </si>
+  <si>
+    <t>攤販經營家數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re_CityName</t>
+  </si>
+  <si>
+    <t>Re_CityNo</t>
+  </si>
+  <si>
+    <t>Re_ID</t>
+  </si>
+  <si>
+    <t>資料表名稱：Retail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_Version</t>
+  </si>
+  <si>
+    <t>Sf_Status</t>
+  </si>
+  <si>
+    <t>Sf_CreateName</t>
+  </si>
+  <si>
+    <t>Sf_CreateID</t>
+  </si>
+  <si>
+    <t>Sf_CreateDate</t>
+  </si>
+  <si>
+    <t>暴力犯罪破獲率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_ViolentCrimesClearanceRateYear</t>
+  </si>
+  <si>
+    <t>暴力犯罪破獲率-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_100KPeopleViolentCrimesTimes</t>
+  </si>
+  <si>
+    <t>每十萬人暴力犯罪發生數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_100KPeopleViolentCrimesTimesYear</t>
+  </si>
+  <si>
+    <t>每十萬人暴力犯罪發生數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刑案破獲率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_CriminalCaseClearanceRateYear</t>
+  </si>
+  <si>
+    <t>刑案破獲率-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_100KPeopleCriminalCaseTimes</t>
+  </si>
+  <si>
+    <t>每十萬人刑案發生數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_100KPeopleCriminalCaseTimesYear</t>
+  </si>
+  <si>
+    <t>每十萬人刑案發生數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竊盜案破獲率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_BurglaryClearanceRateYear</t>
+  </si>
+  <si>
+    <t>竊盜案破獲率-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_100KPeopleBurglaryTimes</t>
+  </si>
+  <si>
+    <t>每十萬人竊盜案發生數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_100KPeopleBurglaryTimesYear</t>
+  </si>
+  <si>
+    <t>每十萬人竊盜案發生數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_10KPeopleFireTimes</t>
+  </si>
+  <si>
+    <t>每萬人火災發生次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_10KPeopleFireTimesYear</t>
+  </si>
+  <si>
+    <t>每萬人火災發生次數-資料年度</t>
+  </si>
+  <si>
+    <t>單位:公噸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_PM25Quantity</t>
+  </si>
+  <si>
+    <t>總懸浮微粒排放量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_PM25QuantityYear</t>
+  </si>
+  <si>
+    <t>總懸浮微粒排放量-資料年度</t>
+  </si>
+  <si>
+    <t>單位:平方公尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_UnderWaterArea</t>
+  </si>
+  <si>
+    <t>地下水受污染使用限制面積</t>
+  </si>
+  <si>
+    <t>Sf_UnderWaterAreaYear</t>
+  </si>
+  <si>
+    <t>地下水受污染使用限制面積-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_SoilArea</t>
+  </si>
+  <si>
+    <t>土壤污染控制場址面積</t>
+  </si>
+  <si>
+    <t>Sf_SoilAreaYear</t>
+  </si>
+  <si>
+    <t>土壤污染控制場址面積-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_CityName</t>
+  </si>
+  <si>
+    <t>Sf_CityNo</t>
+  </si>
+  <si>
+    <t>Sf_ID</t>
+  </si>
+  <si>
+    <t>資料表名稱：Safety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ene_Version</t>
+  </si>
+  <si>
+    <t>Ene_Status</t>
+  </si>
+  <si>
+    <t>Ene_CreateName</t>
+  </si>
+  <si>
+    <t>Ene_CreateID</t>
+  </si>
+  <si>
+    <t>Ene_CreateDate</t>
+  </si>
+  <si>
+    <t>再生能源電量佔用電量比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ene_ReEnergyOfElectricityRateYear</t>
+  </si>
+  <si>
+    <t>再生能源電量佔用電量比例-資料年度</t>
+  </si>
+  <si>
+    <t>單位:度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ene_ElectricityUsed</t>
+  </si>
+  <si>
+    <t>用電量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ene_ElectricityUsedYear</t>
+  </si>
+  <si>
+    <t>用電量-資料年度</t>
+  </si>
+  <si>
+    <t>Ene_TPCBuyElectricity</t>
+  </si>
+  <si>
+    <t>台電購入再生能源電量</t>
+  </si>
+  <si>
+    <t>Ene_TPCBuyElectricityYear</t>
+  </si>
+  <si>
+    <t>台電購入再生能源電量-資料年度</t>
+  </si>
+  <si>
+    <t>單位:千瓦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ene_DeviceCapacityNum</t>
+  </si>
+  <si>
+    <t>再生能源裝置容量數</t>
+  </si>
+  <si>
+    <t>Ene_DeviceCapacityNumYear</t>
+  </si>
+  <si>
+    <t>再生能源裝置容量數-資料年度</t>
+  </si>
+  <si>
+    <t>Ene_CityName</t>
+  </si>
+  <si>
+    <t>Ene_CityNo</t>
+  </si>
+  <si>
+    <t>Ene_ID</t>
+  </si>
+  <si>
+    <t>資料表名稱：Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_Version</t>
+  </si>
+  <si>
+    <t>Hea_Status</t>
+  </si>
+  <si>
+    <t>Hea_CreateName</t>
+  </si>
+  <si>
+    <t>Hea_CreateID</t>
+  </si>
+  <si>
+    <t>Hea_CreateDate</t>
+  </si>
+  <si>
+    <t>Hea_GOVPayOfNHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府部門醫療保健支出</t>
+  </si>
+  <si>
+    <t>Hea_GOVPayOfNHIYear</t>
+  </si>
+  <si>
+    <t>政府部門醫療保健支出-資料年度</t>
+  </si>
+  <si>
+    <t>單位:人/所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_MedicalInstitutionsAvgPerson</t>
+  </si>
+  <si>
+    <t>平均每一醫療機構服務人數</t>
+  </si>
+  <si>
+    <t>Hea_MedicalInstitutionsAvgPersonYear</t>
+  </si>
+  <si>
+    <t>平均每一醫療機構服務人數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_MedicalInstitutions</t>
+  </si>
+  <si>
+    <t>醫療機構數</t>
+  </si>
+  <si>
+    <t>Hea_MedicalInstitutionsYear</t>
+  </si>
+  <si>
+    <t>醫療機構數-資料年度</t>
+  </si>
+  <si>
+    <t>長期照顧機構可供進駐人數佔預估失能老人需求比例</t>
+  </si>
+  <si>
+    <t>Hea_LongTermPersonOfOldMenRateYear</t>
+  </si>
+  <si>
+    <t>長期照顧機構可供進駐人數佔預估失能老人需求比例-資料年度</t>
+  </si>
+  <si>
+    <t>Hea_LongTermPerson</t>
+  </si>
+  <si>
+    <t>長期照顧機構可供進駐人數</t>
+  </si>
+  <si>
+    <t>Hea_LongTermPersonYear</t>
+  </si>
+  <si>
+    <t>長期照顧機構可供進駐人數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身心障礙人口占全縣(市)總人口比率</t>
+  </si>
+  <si>
+    <t>Hea_DisabledPersonOfCityRateYear</t>
+  </si>
+  <si>
+    <t>身心障礙人口占全縣(市)總人口比率-資料年度</t>
+  </si>
+  <si>
+    <t>Hea_10KpeoplePractitioner</t>
+  </si>
+  <si>
+    <t>每萬人執業醫事人員數</t>
+  </si>
+  <si>
+    <t>Hea_10KpeoplePractitionerYear</t>
+  </si>
+  <si>
+    <t>每萬人執業醫事人員數-資料年度</t>
+  </si>
+  <si>
+    <t>單位:床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_10KPeopleAcuteGeneralBed</t>
+  </si>
+  <si>
+    <t>每萬人口急性一般病床數</t>
+  </si>
+  <si>
+    <t>Hea_10KPeopleAcuteGeneralBedYear</t>
+  </si>
+  <si>
+    <t>每萬人口急性一般病床數-資料年度</t>
+  </si>
+  <si>
+    <t>Hea_10KPeopleBed</t>
+  </si>
+  <si>
+    <t>每萬人口病床數</t>
+  </si>
+  <si>
+    <t>Hea_10KPeopleBedYear</t>
+  </si>
+  <si>
+    <t>每萬人口病床數-資料年度</t>
+  </si>
+  <si>
+    <t>Hea_CityName</t>
+  </si>
+  <si>
+    <t>健保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHI</t>
+  </si>
+  <si>
+    <t>Hea_CityNo</t>
+  </si>
+  <si>
+    <t>政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_ID</t>
+  </si>
+  <si>
+    <t>資料表名稱：Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_Version</t>
+  </si>
+  <si>
+    <t>Edu_Status</t>
+  </si>
+  <si>
+    <t>Edu_CreateName</t>
+  </si>
+  <si>
+    <t>Edu_CreateID</t>
+  </si>
+  <si>
+    <t>Edu_CreateDate</t>
+  </si>
+  <si>
+    <t>單位:台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESJSAvgPCNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國中小平均每人教學電腦數</t>
+  </si>
+  <si>
+    <t>Edu_ESJSAvgPCNumYear</t>
+  </si>
+  <si>
+    <t>國中小平均每人教學電腦數-資料年度</t>
+  </si>
+  <si>
+    <t>Edu_ESJSPCNum</t>
+  </si>
+  <si>
+    <t>國中小教學電腦數</t>
+  </si>
+  <si>
+    <t>Edu_ESJSPCNumYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國中小教學電腦數-資料年度</t>
+  </si>
+  <si>
+    <t>Edu_ESToHSAvgBudget</t>
+  </si>
+  <si>
+    <t>國小-高中(職)平均每人教育預算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESToHSAvgBudgetYear</t>
+  </si>
+  <si>
+    <t>國小-高中(職)平均每人教育預算-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:%</t>
+  </si>
+  <si>
+    <t>Edu_BudgetUpRate</t>
+  </si>
+  <si>
+    <t>教育預算成長率</t>
+  </si>
+  <si>
+    <t>EX:106-107年</t>
+  </si>
+  <si>
+    <t>Edu_BudgetUpRateYearDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育預算成長率-資料年度敘述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_Budget</t>
+  </si>
+  <si>
+    <t>教育預算</t>
+  </si>
+  <si>
+    <t>Edu_BudgetYear</t>
+  </si>
+  <si>
+    <t>教育預算-資料年度</t>
   </si>
   <si>
     <t>單位:人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65歲以上老年人口數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-64歲青壯年人口數</t>
-  </si>
-  <si>
-    <t>P_ChildPercent</t>
-  </si>
-  <si>
-    <t>0-14歲幼年人口數</t>
-  </si>
-  <si>
-    <t>P_Child</t>
-  </si>
-  <si>
-    <t>民國年</t>
-  </si>
-  <si>
-    <t>nvarchar(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_PeopleTotalPercent</t>
-  </si>
-  <si>
-    <t>年底戶籍總人口數成長率</t>
-  </si>
-  <si>
-    <t>民國年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_PeopleTotalPercentYear</t>
-  </si>
-  <si>
-    <t>P_PeopleTotal</t>
-  </si>
-  <si>
-    <t>年底戶籍總人口數</t>
-  </si>
-  <si>
-    <t>P_TotalYear</t>
-  </si>
-  <si>
-    <t>年底戶籍總人口數-資料年度</t>
-  </si>
-  <si>
-    <t>km2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Area</t>
-  </si>
-  <si>
-    <t>土地面積</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_AreaYear</t>
-  </si>
-  <si>
-    <t>土地面積-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_CityName</t>
-  </si>
-  <si>
-    <t>縣市名稱</t>
-  </si>
-  <si>
-    <t>P_CityNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水序號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱：Population</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Version</t>
-  </si>
-  <si>
-    <t>T_Status</t>
-  </si>
-  <si>
-    <t>T_CreateName</t>
-  </si>
-  <si>
-    <t>T_CreateID</t>
-  </si>
-  <si>
-    <t>T_CreateDate</t>
-  </si>
-  <si>
-    <t>單位:元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_HotelAvgPrice</t>
-  </si>
-  <si>
-    <t>觀光旅館平均房價</t>
-  </si>
-  <si>
-    <t>T_HotelAvgPriceYear</t>
-  </si>
-  <si>
-    <t>觀光旅館平均房價-資料年度</t>
-  </si>
-  <si>
-    <t>單位:間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_HotelRooms</t>
-  </si>
-  <si>
-    <t>觀光旅館房間數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_HotelRoomsYear</t>
-  </si>
-  <si>
-    <t>觀光旅館房間數-資料年度</t>
-  </si>
-  <si>
-    <t>單位:家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_Hotels</t>
-  </si>
-  <si>
-    <t>觀光旅館家數</t>
-  </si>
-  <si>
-    <t>T_HotelsYear</t>
-  </si>
-  <si>
-    <t>觀光旅館家數-資料年度</t>
-  </si>
-  <si>
-    <t>單位:人次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PointPeople</t>
-  </si>
-  <si>
-    <t>觀光遊憩據點(縣市)人次統計</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX:107年(統計至107年11月) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PointYearDesc</t>
-  </si>
-  <si>
-    <t>觀光遊憩據點(縣市)人次統計-資料年度敘述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_PointYear</t>
-  </si>
-  <si>
-    <t>觀光遊憩據點(縣市)人次統計-資料年度</t>
-  </si>
-  <si>
-    <t>T_HotelUseRate</t>
-  </si>
-  <si>
-    <t>觀光旅館住用率</t>
-  </si>
-  <si>
-    <t>T_HotelUseYear</t>
-  </si>
-  <si>
-    <t>觀光旅館住用率-資料年度</t>
-  </si>
-  <si>
-    <t>T_CityName</t>
-  </si>
-  <si>
-    <t>T_CityNo</t>
-  </si>
-  <si>
-    <t>T_ID</t>
-  </si>
-  <si>
-    <t>資料表名稱：Travel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觀光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_CreateName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_CreateID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>Tra_100KNumberOfCasualties</t>
-  </si>
-  <si>
-    <t>每十萬人道路交通事故死傷人數</t>
-  </si>
-  <si>
-    <t>Tra_100KNumberOfCasualtiesYear</t>
-  </si>
-  <si>
-    <t>每十萬人道路交通事故死傷人數-資料年度</t>
-  </si>
-  <si>
-    <t>次</t>
-  </si>
-  <si>
-    <t>Tra_10KMotoIncidentsNum</t>
-  </si>
-  <si>
-    <t>每萬輛機動車肇事數</t>
-  </si>
-  <si>
-    <t>Tra_10KMotoIncidentsNumYear</t>
-  </si>
-  <si>
-    <t>每萬輛機動車肇事數-資料年度</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Tra_100HaveCarRate</t>
-  </si>
-  <si>
-    <t>每百人擁有汽車數成長率</t>
-  </si>
-  <si>
-    <t>ex:105-106年成長率</t>
-  </si>
-  <si>
-    <t>Tra_100HaveCarRateYearDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每百人擁有汽車數成長率-資料年度敘述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輛</t>
-  </si>
-  <si>
-    <t>Tra_100HaveCar</t>
-  </si>
-  <si>
-    <t>每百人擁有汽車數</t>
-  </si>
-  <si>
-    <t>Tra_100HaveCarYear</t>
-  </si>
-  <si>
-    <t>每百人擁有汽車數-資料年度</t>
-  </si>
-  <si>
-    <t>Tra_CarCount</t>
-  </si>
-  <si>
-    <t>汽車登記數</t>
-  </si>
-  <si>
-    <t>Tra_CarCountYear</t>
-  </si>
-  <si>
-    <t>汽車登記數-資料年度</t>
-  </si>
-  <si>
-    <t>位／萬輛</t>
-  </si>
-  <si>
-    <t>Tra_10KHaveCarPark</t>
-  </si>
-  <si>
-    <t>每萬輛小型車擁有路外及路邊停車位數</t>
-  </si>
-  <si>
-    <t>Tra_10KHaveCarParkYear</t>
-  </si>
-  <si>
-    <t>每萬輛小型車擁有路外及路邊停車位數-資料年度</t>
-  </si>
-  <si>
-    <t>個</t>
-  </si>
-  <si>
-    <t>分鐘</t>
-  </si>
-  <si>
-    <t>Tra_CarParkTime</t>
-  </si>
-  <si>
-    <t>自小客車在居家附近每次尋找停車位時間</t>
-  </si>
-  <si>
-    <t>Tra_CarParkTimeYear</t>
-  </si>
-  <si>
-    <t>自小客車在居家附近每次尋找停車位時間-資料年度</t>
-  </si>
-  <si>
-    <t>Tra_PublicTransportRate</t>
-  </si>
-  <si>
-    <t>通勤學民眾運具次數之公共運具市佔率</t>
-  </si>
-  <si>
-    <t>Tra_PublicTransportRateYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通勤學民眾運具次數之公共運具市佔率-資料年度</t>
-  </si>
-  <si>
-    <t>Tra_CityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_CityNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱：Traffic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_CreateName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_CreateID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_CreateDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位:千元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_FarmEmploymentOutputValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均農業從業人口產值</t>
-  </si>
-  <si>
-    <t>Fa_FarmEmploymentOutputValueYear</t>
-  </si>
-  <si>
-    <t>平均農業從業人口產值-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_Farmer</t>
-  </si>
-  <si>
-    <t>農戶人口數</t>
-  </si>
-  <si>
-    <t>Fa_FarmerYear</t>
-  </si>
-  <si>
-    <t>農戶人口數-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_FarmingOutputRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農業產值成長率</t>
-  </si>
-  <si>
-    <t>EX:105-106年</t>
-  </si>
-  <si>
-    <t>Fa_FarmingOutputRateYearDesc</t>
-  </si>
-  <si>
-    <t>農業產值成長率-資料年度敘述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_FarmingOutputValue</t>
-  </si>
-  <si>
-    <t>農業產值</t>
-  </si>
-  <si>
-    <t>Fa_FarmingOutputValueYear</t>
-  </si>
-  <si>
-    <t>農業產值-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_FacilityLoss</t>
-  </si>
-  <si>
-    <t>農林漁牧天然災害設施(備)損失</t>
-  </si>
-  <si>
-    <t>Fa_FacilityLossYear</t>
-  </si>
-  <si>
-    <t>農林漁牧天然災害設施(備)損失-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_AllLoss</t>
-  </si>
-  <si>
-    <t>農林漁牧天然災害產物損失</t>
-  </si>
-  <si>
-    <t>Fa_AllLossYear</t>
-  </si>
-  <si>
-    <t>農林漁牧天然災害產物損失-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_ForestLoss</t>
-  </si>
-  <si>
-    <t>臺閩地區林業天然災害產物損失</t>
-  </si>
-  <si>
-    <t>Fa_ForestLossYear</t>
-  </si>
-  <si>
-    <t>臺閩地區林業天然災害產物損失-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_FishLoss</t>
-  </si>
-  <si>
-    <t>天然災害漁業產物損失</t>
-  </si>
-  <si>
-    <t>Fa_FishLossYear</t>
-  </si>
-  <si>
-    <t>天然災害漁業產物損失-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_AnimalLoss</t>
-  </si>
-  <si>
-    <t>然災害畜牧業產物損失</t>
-  </si>
-  <si>
-    <t>Fa_AnimalLossYear</t>
-  </si>
-  <si>
-    <t>天然災害畜牧業產物損失-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_FarmingLoss</t>
-  </si>
-  <si>
-    <t>臺閩地區農業天然災害產物損失</t>
-  </si>
-  <si>
-    <t>Fa_FarmingLossYear</t>
-  </si>
-  <si>
-    <t>臺閩地區農業天然災害產物損失-資料年度</t>
-  </si>
-  <si>
-    <t>Fa_CityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_CityNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱：Farming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MR_Version</t>
-  </si>
-  <si>
-    <t>MR_Status</t>
-  </si>
-  <si>
-    <t>MR_CreateName</t>
-  </si>
-  <si>
-    <t>MR_CreateID</t>
-  </si>
-  <si>
-    <t>MR_CreateDate</t>
-  </si>
-  <si>
-    <t>MR_AdArea</t>
-  </si>
-  <si>
-    <t>行政區數</t>
-  </si>
-  <si>
-    <t>nvarchar(3)</t>
-  </si>
-  <si>
-    <t>MR_AdAreaYear</t>
-  </si>
-  <si>
-    <t>行政區數-資料年度</t>
-  </si>
-  <si>
-    <t>MR_PoliticalParty</t>
-  </si>
-  <si>
-    <t>推薦政黨</t>
-  </si>
-  <si>
-    <t>MR_PoliticalPartyYear</t>
-  </si>
-  <si>
-    <t>推薦政黨-資料年度</t>
-  </si>
-  <si>
-    <t>MR_ViceMayor</t>
-  </si>
-  <si>
-    <t>副縣/市長</t>
-  </si>
-  <si>
-    <t>MR_ViceMayorYear</t>
-  </si>
-  <si>
-    <t>副縣/市長-資料年度</t>
-  </si>
-  <si>
-    <t>MR_Mayor</t>
-  </si>
-  <si>
-    <t>直轄市/縣市長</t>
-  </si>
-  <si>
-    <t>MR_MayorYear</t>
-  </si>
-  <si>
-    <t>直轄市/縣市長-資料年度</t>
-  </si>
-  <si>
-    <t>MR_CityName</t>
-  </si>
-  <si>
-    <t>MR_CityNo</t>
-  </si>
-  <si>
-    <t>MR_ID</t>
-  </si>
-  <si>
-    <t>資料表名稱：Mayor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市長副市長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ind_Version</t>
-  </si>
-  <si>
-    <t>Ind_Status</t>
-  </si>
-  <si>
-    <t>Ind_CreateName</t>
-  </si>
-  <si>
-    <t>Ind_CreateID</t>
-  </si>
-  <si>
-    <t>Ind_CreateDate</t>
-  </si>
-  <si>
-    <t>nvarchar(20)</t>
-  </si>
-  <si>
-    <t>Ind_Sales</t>
-  </si>
-  <si>
-    <t>營利事業銷售額</t>
-  </si>
-  <si>
-    <t>Ind_SalesYear</t>
-  </si>
-  <si>
-    <t>營利事業銷售額-資料年度</t>
-  </si>
-  <si>
-    <t>Ind_Income</t>
-  </si>
-  <si>
-    <t>工廠營業收入</t>
-  </si>
-  <si>
-    <t>Ind_IncomeYear</t>
-  </si>
-  <si>
-    <t>工廠營業收入-資料年度</t>
-  </si>
-  <si>
-    <t>Ind_Factory</t>
-  </si>
-  <si>
-    <t>營運中工廠家數</t>
-  </si>
-  <si>
-    <t>Ind_FactoryYear</t>
-  </si>
-  <si>
-    <t>營運中工廠家數-資料年度</t>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-  </si>
-  <si>
-    <t>Ind_Business</t>
-  </si>
-  <si>
-    <t>形成群聚之產業(依工研院產科國際所群聚資料)</t>
-  </si>
-  <si>
-    <t>Ind_BusinessYear</t>
-  </si>
-  <si>
-    <t>形成群聚之產業(依工研院產科國際所群聚資料)-資料年度</t>
-  </si>
-  <si>
-    <t>Ind_CityName</t>
-  </si>
-  <si>
-    <t>Ind_CityNo</t>
-  </si>
-  <si>
-    <t>Ind_ID</t>
-  </si>
-  <si>
-    <t>資料表名稱：Industry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>產業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Re_Version</t>
-  </si>
-  <si>
-    <t>Re_Status</t>
-  </si>
-  <si>
-    <t>Re_CreateName</t>
-  </si>
-  <si>
-    <t>Re_CreateID</t>
-  </si>
-  <si>
-    <t>Re_CreateDate</t>
-  </si>
-  <si>
-    <t>Re_RetailBusinessAvgSales</t>
-  </si>
-  <si>
-    <t>零售業營利事業平均每家銷售額</t>
-  </si>
-  <si>
-    <t>Re_RetailBusinessAvgSalesYear</t>
-  </si>
-  <si>
-    <t>零售業營利事業平均每家銷售額-資料年度</t>
-  </si>
-  <si>
-    <t>nvarchar(7)</t>
-  </si>
-  <si>
-    <t>Re_RetailBusinessSalesRate</t>
-  </si>
-  <si>
-    <t>零售業營利事業銷售額成長率</t>
-  </si>
-  <si>
-    <t>EX: 106-107年</t>
-  </si>
-  <si>
-    <t>Re_RetailBusinessSalesRateYearDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售業營利事業銷售額成長率-年度敘述</t>
-  </si>
-  <si>
-    <t>Re_RetailBusinessSales</t>
-  </si>
-  <si>
-    <t>零售業營利事業銷售額</t>
-  </si>
-  <si>
-    <t>Re_RetailBusinessSalesYear</t>
-  </si>
-  <si>
-    <t>零售業營利事業銷售額-資料年度</t>
-  </si>
-  <si>
-    <t>Re_StreetVendorAvgIncome</t>
-  </si>
-  <si>
-    <t>攤販全年平均收入</t>
-  </si>
-  <si>
-    <t>Re_StreetVendorAvgIncomeYear</t>
-  </si>
-  <si>
-    <t>攤販全年平均收入-資料年度</t>
-  </si>
-  <si>
-    <t>Re_StreetVendorIncome</t>
-  </si>
-  <si>
-    <t>攤販全年收入</t>
-  </si>
-  <si>
-    <t>Re_StreetVendorIncomeYear</t>
-  </si>
-  <si>
-    <t>攤販全年收入-資料年度</t>
-  </si>
-  <si>
-    <t>Re_StreetVendor</t>
-  </si>
-  <si>
-    <t>攤販從業人數</t>
-  </si>
-  <si>
-    <t>Re_Re_StreetVendorYear</t>
-  </si>
-  <si>
-    <t>攤販從業人數-資料年度</t>
-  </si>
-  <si>
-    <t>Re_StreetStand</t>
-  </si>
-  <si>
-    <t>攤販經營家數</t>
-  </si>
-  <si>
-    <t>Re_StreetStandYear</t>
-  </si>
-  <si>
-    <t>攤販經營家數-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Re_CityName</t>
-  </si>
-  <si>
-    <t>Re_CityNo</t>
-  </si>
-  <si>
-    <t>Re_ID</t>
-  </si>
-  <si>
-    <t>資料表名稱：Retail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_Version</t>
-  </si>
-  <si>
-    <t>Sf_Status</t>
-  </si>
-  <si>
-    <t>Sf_CreateName</t>
-  </si>
-  <si>
-    <t>Sf_CreateID</t>
-  </si>
-  <si>
-    <t>Sf_CreateDate</t>
-  </si>
-  <si>
-    <t>Sf_ViolentCrimesClearanceRate</t>
-  </si>
-  <si>
-    <t>暴力犯罪破獲率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_ViolentCrimesClearanceRateYear</t>
-  </si>
-  <si>
-    <t>暴力犯罪破獲率-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位:件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_100KPeopleViolentCrimesTimes</t>
-  </si>
-  <si>
-    <t>每十萬人暴力犯罪發生數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_100KPeopleViolentCrimesTimesYear</t>
-  </si>
-  <si>
-    <t>每十萬人暴力犯罪發生數-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_CriminalCaseClearanceRate</t>
-  </si>
-  <si>
-    <t>刑案破獲率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_CriminalCaseClearanceRateYear</t>
-  </si>
-  <si>
-    <t>刑案破獲率-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_100KPeopleCriminalCaseTimes</t>
-  </si>
-  <si>
-    <t>每十萬人刑案發生數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_100KPeopleCriminalCaseTimesYear</t>
-  </si>
-  <si>
-    <t>每十萬人刑案發生數-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_BurglaryClearanceRate</t>
-  </si>
-  <si>
-    <t>竊盜案破獲率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_BurglaryClearanceRateYear</t>
-  </si>
-  <si>
-    <t>竊盜案破獲率-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_100KPeopleBurglaryTimes</t>
-  </si>
-  <si>
-    <t>每十萬人竊盜案發生數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_100KPeopleBurglaryTimesYear</t>
-  </si>
-  <si>
-    <t>每十萬人竊盜案發生數-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位:次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_10KPeopleFireTimes</t>
-  </si>
-  <si>
-    <t>每萬人火災發生次數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_10KPeopleFireTimesYear</t>
-  </si>
-  <si>
-    <t>每萬人火災發生次數-資料年度</t>
-  </si>
-  <si>
-    <t>單位:公噸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_PM25Quantity</t>
-  </si>
-  <si>
-    <t>總懸浮微粒排放量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_PM25QuantityYear</t>
-  </si>
-  <si>
-    <t>總懸浮微粒排放量-資料年度</t>
-  </si>
-  <si>
-    <t>單位:平方公尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_UnderWaterArea</t>
-  </si>
-  <si>
-    <t>地下水受污染使用限制面積</t>
-  </si>
-  <si>
-    <t>Sf_UnderWaterAreaYear</t>
-  </si>
-  <si>
-    <t>地下水受污染使用限制面積-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_SoilArea</t>
-  </si>
-  <si>
-    <t>土壤污染控制場址面積</t>
-  </si>
-  <si>
-    <t>Sf_SoilAreaYear</t>
-  </si>
-  <si>
-    <t>土壤污染控制場址面積-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_CityName</t>
-  </si>
-  <si>
-    <t>Sf_CityNo</t>
-  </si>
-  <si>
-    <t>Sf_ID</t>
-  </si>
-  <si>
-    <t>資料表名稱：Safety</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ene_Version</t>
-  </si>
-  <si>
-    <t>Ene_Status</t>
-  </si>
-  <si>
-    <t>Ene_CreateName</t>
-  </si>
-  <si>
-    <t>Ene_CreateID</t>
-  </si>
-  <si>
-    <t>Ene_CreateDate</t>
-  </si>
-  <si>
-    <t>Ene_ReEnergyOfElectricityRate</t>
-  </si>
-  <si>
-    <t>再生能源電量佔用電量比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ene_ReEnergyOfElectricityRateYear</t>
-  </si>
-  <si>
-    <t>再生能源電量佔用電量比例-資料年度</t>
-  </si>
-  <si>
-    <t>單位:度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ene_ElectricityUsed</t>
-  </si>
-  <si>
-    <t>用電量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ene_ElectricityUsedYear</t>
-  </si>
-  <si>
-    <t>用電量-資料年度</t>
-  </si>
-  <si>
-    <t>Ene_TPCBuyElectricity</t>
-  </si>
-  <si>
-    <t>台電購入再生能源電量</t>
-  </si>
-  <si>
-    <t>Ene_TPCBuyElectricityYear</t>
-  </si>
-  <si>
-    <t>台電購入再生能源電量-資料年度</t>
-  </si>
-  <si>
-    <t>單位:千瓦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ene_DeviceCapacityNum</t>
-  </si>
-  <si>
-    <t>再生能源裝置容量數</t>
-  </si>
-  <si>
-    <t>Ene_DeviceCapacityNumYear</t>
-  </si>
-  <si>
-    <t>再生能源裝置容量數-資料年度</t>
-  </si>
-  <si>
-    <t>Ene_CityName</t>
-  </si>
-  <si>
-    <t>Ene_CityNo</t>
-  </si>
-  <si>
-    <t>Ene_ID</t>
-  </si>
-  <si>
-    <t>資料表名稱：Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_Version</t>
-  </si>
-  <si>
-    <t>Hea_Status</t>
-  </si>
-  <si>
-    <t>Hea_CreateName</t>
-  </si>
-  <si>
-    <t>Hea_CreateID</t>
-  </si>
-  <si>
-    <t>Hea_CreateDate</t>
-  </si>
-  <si>
-    <t>Hea_GOVPayOfNHI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政府部門醫療保健支出</t>
-  </si>
-  <si>
-    <t>Hea_GOVPayOfNHIYear</t>
-  </si>
-  <si>
-    <t>政府部門醫療保健支出-資料年度</t>
-  </si>
-  <si>
-    <t>單位:人/所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_MedicalInstitutionsAvgPerson</t>
-  </si>
-  <si>
-    <t>平均每一醫療機構服務人數</t>
-  </si>
-  <si>
-    <t>Hea_MedicalInstitutionsAvgPersonYear</t>
-  </si>
-  <si>
-    <t>平均每一醫療機構服務人數-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位:所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_MedicalInstitutions</t>
-  </si>
-  <si>
-    <t>醫療機構數</t>
-  </si>
-  <si>
-    <t>Hea_MedicalInstitutionsYear</t>
-  </si>
-  <si>
-    <t>醫療機構數-資料年度</t>
-  </si>
-  <si>
-    <t>Hea_LongTermPersonOfOldMenRate</t>
-  </si>
-  <si>
-    <t>長期照顧機構可供進駐人數佔預估失能老人需求比例</t>
-  </si>
-  <si>
-    <t>Hea_LongTermPersonOfOldMenRateYear</t>
-  </si>
-  <si>
-    <t>長期照顧機構可供進駐人數佔預估失能老人需求比例-資料年度</t>
-  </si>
-  <si>
-    <t>Hea_LongTermPerson</t>
-  </si>
-  <si>
-    <t>長期照顧機構可供進駐人數</t>
-  </si>
-  <si>
-    <t>Hea_LongTermPersonYear</t>
-  </si>
-  <si>
-    <t>長期照顧機構可供進駐人數-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_DisabledPersonOfCityRate</t>
-  </si>
-  <si>
-    <t>身心障礙人口占全縣(市)總人口比率</t>
-  </si>
-  <si>
-    <t>Hea_DisabledPersonOfCityRateYear</t>
-  </si>
-  <si>
-    <t>身心障礙人口占全縣(市)總人口比率-資料年度</t>
-  </si>
-  <si>
-    <t>Hea_10KpeoplePractitioner</t>
-  </si>
-  <si>
-    <t>每萬人執業醫事人員數</t>
-  </si>
-  <si>
-    <t>Hea_10KpeoplePractitionerYear</t>
-  </si>
-  <si>
-    <t>每萬人執業醫事人員數-資料年度</t>
-  </si>
-  <si>
-    <t>單位:床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_10KPeopleAcuteGeneralBed</t>
-  </si>
-  <si>
-    <t>每萬人口急性一般病床數</t>
-  </si>
-  <si>
-    <t>Hea_10KPeopleAcuteGeneralBedYear</t>
-  </si>
-  <si>
-    <t>每萬人口急性一般病床數-資料年度</t>
-  </si>
-  <si>
-    <t>Hea_10KPeopleBed</t>
-  </si>
-  <si>
-    <t>每萬人口病床數</t>
-  </si>
-  <si>
-    <t>Hea_10KPeopleBedYear</t>
-  </si>
-  <si>
-    <t>每萬人口病床數-資料年度</t>
-  </si>
-  <si>
-    <t>Hea_CityName</t>
-  </si>
-  <si>
-    <t>健保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHI</t>
-  </si>
-  <si>
-    <t>Hea_CityNo</t>
-  </si>
-  <si>
-    <t>政府</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_ID</t>
-  </si>
-  <si>
-    <t>資料表名稱：Health</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_Version</t>
-  </si>
-  <si>
-    <t>Edu_Status</t>
-  </si>
-  <si>
-    <t>Edu_CreateName</t>
-  </si>
-  <si>
-    <t>Edu_CreateID</t>
-  </si>
-  <si>
-    <t>Edu_CreateDate</t>
-  </si>
-  <si>
-    <t>單位:台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_ESJSAvgPCNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國中小平均每人教學電腦數</t>
-  </si>
-  <si>
-    <t>Edu_ESJSAvgPCNumYear</t>
-  </si>
-  <si>
-    <t>國中小平均每人教學電腦數-資料年度</t>
-  </si>
-  <si>
-    <t>Edu_ESJSPCNum</t>
-  </si>
-  <si>
-    <t>國中小教學電腦數</t>
-  </si>
-  <si>
-    <t>Edu_ESJSPCNumYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國中小教學電腦數-資料年度</t>
-  </si>
-  <si>
-    <t>Edu_ESToHSAvgBudget</t>
-  </si>
-  <si>
-    <t>國小-高中(職)平均每人教育預算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_ESToHSAvgBudgetYear</t>
-  </si>
-  <si>
-    <t>國小-高中(職)平均每人教育預算-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位:%</t>
-  </si>
-  <si>
-    <t>Edu_BudgetUpRate</t>
-  </si>
-  <si>
-    <t>教育預算成長率</t>
-  </si>
-  <si>
-    <t>EX:106-107年</t>
-  </si>
-  <si>
-    <t>Edu_BudgetUpRateYearDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育預算成長率-資料年度敘述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_Budget</t>
-  </si>
-  <si>
-    <t>教育預算</t>
-  </si>
-  <si>
-    <t>Edu_BudgetYear</t>
-  </si>
-  <si>
-    <t>教育預算-資料年度</t>
-  </si>
-  <si>
-    <t>單位:人</t>
   </si>
   <si>
     <t>Edu_ESJSTeachersOfStudentRate</t>
@@ -2659,9 +2603,6 @@
     <t>國中學生輟學率-資料年度</t>
   </si>
   <si>
-    <t>Edu_ESStudentDropOutRate</t>
-  </si>
-  <si>
     <t>國小學生輟學率</t>
   </si>
   <si>
@@ -2671,9 +2612,6 @@
     <t>國小學生輟學率-資料年度</t>
   </si>
   <si>
-    <t>Edu_15upUSUpRate</t>
-  </si>
-  <si>
     <t>15歲以上民間人口之教育程度結構-大專及以上</t>
   </si>
   <si>
@@ -2683,9 +2621,6 @@
     <t>15歲以上民間人口之教育程度結構-大專及以上-資料年度</t>
   </si>
   <si>
-    <t>Edu_15upHSRate</t>
-  </si>
-  <si>
     <t>15歲以上民間人口之教育程度結構-高中(職)</t>
   </si>
   <si>
@@ -2695,9 +2630,6 @@
     <t>15歲以上民間人口之教育程度結構-高中(職)-資料年度</t>
   </si>
   <si>
-    <t>Edu_15upJSDownRate</t>
-  </si>
-  <si>
     <t>15歲以上民間人口之教育程度結構-國中及以下</t>
   </si>
   <si>
@@ -2844,15 +2776,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P_OldMenPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P_OldMen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_TeenagerPercent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3024,38 +2948,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小汽車路邊停車位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadsidParkSpace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadOutsideParkSpaceYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadOutsideParkSpace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否含全區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_AllArea</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_10KHaveCarPark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_100HaveCarRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_PublicTransportRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小汽車路邊停車位-資料年度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小汽車路邊停車位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tra_CarRoadsidParkSpaceYear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tra_CarRoadsidParkSpace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_CarRoadOutsideParkSpaceYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_CarRoadOutsideParkSpace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否含全區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP_AllArea</t>
+    <t>農業產值成長率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_FarmingLossYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售業營利事業銷售額-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re_RetailBusinessSalesRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ene_ReEnergyOfElectricityRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_DisabledPersonOfCityRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_LongTermPersonOfOldMenRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_PeopleTotalPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ChildPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_TeenagerPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_OldMenPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_FarmingOutputRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_BurglaryClearanceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_CriminalCaseClearanceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_ViolentCrimesClearanceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_15upJSDownRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_15upHSRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_15upUSUpRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESStudentDropOutRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3531,7 +3567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3568,18 +3604,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3651,7 +3687,7 @@
         <v>土地人口</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3660,7 +3696,7 @@
         <v>觀光</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3669,7 +3705,7 @@
         <v>交通</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3678,7 +3714,7 @@
         <v>農業</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>822</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3687,7 +3723,7 @@
         <v>市長副市長</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>823</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3696,7 +3732,7 @@
         <v>產業</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3705,7 +3741,7 @@
         <v>零售</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>825</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3714,7 +3750,7 @@
         <v>安全</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>826</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3723,7 +3759,7 @@
         <v>能源</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3732,7 +3768,7 @@
         <v>健康</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>828</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3741,7 +3777,7 @@
         <v>教育</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>829</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -3933,10 +3969,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="B13" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="D13" t="s">
         <v>278</v>
@@ -3944,10 +3980,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="B14" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="D14" t="s">
         <v>278</v>
@@ -3955,10 +3991,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="B15" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -3966,10 +4002,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="B16" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -3999,10 +4035,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="B19" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -4780,10 +4816,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="B15" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -4791,10 +4827,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="B16" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4802,10 +4838,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="B17" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="D17" t="s">
         <v>278</v>
@@ -4813,10 +4849,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="B18" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="D18" t="s">
         <v>278</v>
@@ -4846,10 +4882,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
       <c r="B21" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -4991,8 +5027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5006,7 +5042,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5015,7 +5051,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -5044,7 +5080,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -5053,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5061,7 +5097,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -5070,10 +5106,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -5082,89 +5118,89 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>320</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="B11" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>338</v>
+        <v>895</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>896</v>
       </c>
       <c r="E12" t="s">
         <v>328</v>
@@ -5172,59 +5208,59 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>335</v>
+        <v>900</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20" t="s">
         <v>320</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>333</v>
+        <v>897</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="20" t="s">
-        <v>329</v>
+        <v>896</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>328</v>
@@ -5232,59 +5268,59 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="20" t="s">
         <v>320</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>851</v>
+        <v>898</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
-        <v>329</v>
+        <v>896</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>328</v>
@@ -5292,58 +5328,58 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20" t="s">
         <v>320</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>845</v>
+        <v>823</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="B24" t="s">
-        <v>849</v>
+        <v>899</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>896</v>
       </c>
       <c r="E24" t="s">
         <v>328</v>
@@ -5425,7 +5461,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5439,7 +5475,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5448,7 +5484,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -5477,7 +5513,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -5486,7 +5522,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5494,7 +5530,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -5503,10 +5539,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -5515,29 +5551,29 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>896</v>
       </c>
       <c r="E8" t="s">
         <v>328</v>
@@ -5545,135 +5581,135 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E11" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E13" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D14" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E16" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5681,7 +5717,7 @@
         <v>327</v>
       </c>
       <c r="B18" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D18" t="s">
         <v>325</v>
@@ -5692,7 +5728,7 @@
         <v>324</v>
       </c>
       <c r="B19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D19" t="s">
         <v>320</v>
@@ -5703,7 +5739,7 @@
         <v>322</v>
       </c>
       <c r="B20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D20" t="s">
         <v>320</v>
@@ -5714,7 +5750,7 @@
         <v>319</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D21" t="s">
         <v>145</v>
@@ -5728,7 +5764,7 @@
         <v>316</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
@@ -5750,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5765,7 +5801,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5774,7 +5810,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -5803,7 +5839,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -5812,7 +5848,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5820,7 +5856,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -5829,10 +5865,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -5841,300 +5877,300 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>882</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>883</v>
       </c>
       <c r="E8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="B11" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="B12" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="B13" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="B14" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>880</v>
       </c>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>881</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>883</v>
       </c>
       <c r="E22" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B23" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B24" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E26" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6142,7 +6178,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D27" t="s">
         <v>325</v>
@@ -6153,7 +6189,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D28" t="s">
         <v>320</v>
@@ -6164,7 +6200,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D29" t="s">
         <v>320</v>
@@ -6175,7 +6211,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -6189,7 +6225,7 @@
         <v>316</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -6212,7 +6248,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6225,7 +6261,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6234,7 +6270,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6263,7 +6299,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6272,7 +6308,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6280,7 +6316,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6289,10 +6325,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6301,237 +6337,237 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>887</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B12" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E13" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D14" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B17" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B18" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>461</v>
+        <v>886</v>
       </c>
       <c r="B22" t="s">
-        <v>460</v>
+        <v>901</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" t="s">
-        <v>329</v>
+        <v>896</v>
       </c>
       <c r="E22" t="s">
         <v>328</v>
@@ -6539,62 +6575,62 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B23" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B26" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E26" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6602,7 +6638,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D27" t="s">
         <v>325</v>
@@ -6613,7 +6649,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D28" t="s">
         <v>320</v>
@@ -6624,7 +6660,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D29" t="s">
         <v>320</v>
@@ -6635,7 +6671,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -6649,7 +6685,7 @@
         <v>316</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -6687,7 +6723,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6696,7 +6732,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6725,7 +6761,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6734,7 +6770,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6742,7 +6778,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6751,10 +6787,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6763,25 +6799,25 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
@@ -6790,25 +6826,25 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
@@ -6817,25 +6853,25 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
@@ -6844,25 +6880,25 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B14" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -6873,7 +6909,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -6884,7 +6920,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -6896,7 +6932,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -6908,7 +6944,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -6923,7 +6959,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -6945,7 +6981,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6959,7 +6995,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6968,7 +7004,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6997,7 +7033,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7006,7 +7042,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7014,7 +7050,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7023,10 +7059,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7035,121 +7071,121 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B11" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B12" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B14" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D14" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7157,7 +7193,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -7168,7 +7204,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -7180,7 +7216,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -7192,7 +7228,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -7207,7 +7243,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -7228,8 +7264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7243,7 +7279,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7252,7 +7288,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7281,7 +7317,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7290,7 +7326,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7298,7 +7334,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7307,10 +7343,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7319,177 +7355,177 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B10" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B11" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B12" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B13" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B14" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D14" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>572</v>
+        <v>888</v>
       </c>
       <c r="B15" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E16" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B17" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B18" t="s">
-        <v>564</v>
+        <v>889</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
-        <v>563</v>
+        <v>890</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -7497,31 +7533,31 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B19" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B20" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="D20" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7529,7 +7565,7 @@
         <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -7540,7 +7576,7 @@
         <v>324</v>
       </c>
       <c r="B22" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -7551,7 +7587,7 @@
         <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -7562,7 +7598,7 @@
         <v>319</v>
       </c>
       <c r="B24" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -7576,7 +7612,7 @@
         <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -7596,8 +7632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7611,7 +7647,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7620,7 +7656,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7649,7 +7685,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7658,7 +7694,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7666,7 +7702,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7675,10 +7711,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7687,177 +7723,177 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="B8" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B9" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B10" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B11" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B12" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B13" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B14" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="D14" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B15" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="B16" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E16" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B17" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="B18" t="s">
-        <v>616</v>
+        <v>902</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
-        <v>563</v>
+        <v>903</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -7865,56 +7901,56 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B19" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B20" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D20" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E20" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B21" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="D21" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B22" t="s">
-        <v>608</v>
+        <v>904</v>
       </c>
       <c r="D22" t="s">
-        <v>563</v>
+        <v>903</v>
       </c>
       <c r="E22" t="s">
         <v>328</v>
@@ -7922,55 +7958,55 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B23" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="D23" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B24" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="D24" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E24" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B25" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D25" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B26" t="s">
-        <v>599</v>
+        <v>905</v>
       </c>
       <c r="D26" t="s">
-        <v>563</v>
+        <v>903</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -7981,7 +8017,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -7992,7 +8028,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -8003,7 +8039,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -8014,7 +8050,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -8028,7 +8064,7 @@
         <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -8288,7 +8324,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -8302,7 +8338,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8311,7 +8347,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -8340,7 +8376,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -8349,7 +8385,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8357,7 +8393,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -8366,10 +8402,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -8378,118 +8414,118 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B7" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="B8" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B9" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B10" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B11" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B12" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="B13" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B14" t="s">
-        <v>653</v>
+        <v>891</v>
       </c>
       <c r="D14" t="s">
-        <v>563</v>
+        <v>892</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -8500,7 +8536,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -8511,7 +8547,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -8523,7 +8559,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -8535,7 +8571,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -8550,7 +8586,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -8571,8 +8607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -8585,7 +8621,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="25" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8594,7 +8630,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -8623,7 +8659,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -8632,13 +8668,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="H4" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8646,25 +8682,25 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="H5" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -8673,119 +8709,119 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="B7" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="B8" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E8" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="B9" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="B10" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="B11" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="B12" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="B13" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="B14" t="s">
-        <v>703</v>
+        <v>893</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" t="s">
-        <v>563</v>
+        <v>892</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -8793,59 +8829,59 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="B15" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="B16" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="B17" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="B18" t="s">
-        <v>695</v>
+        <v>894</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" t="s">
-        <v>563</v>
+        <v>892</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -8853,90 +8889,90 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="B19" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="B20" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E20" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B21" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B22" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="D22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E22" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="B23" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="D23" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="B24" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E24" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8944,7 +8980,7 @@
         <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -8955,7 +8991,7 @@
         <v>324</v>
       </c>
       <c r="B26" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
@@ -8967,7 +9003,7 @@
         <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" t="s">
@@ -8979,7 +9015,7 @@
         <v>319</v>
       </c>
       <c r="B28" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" t="s">
@@ -8994,7 +9030,7 @@
         <v>316</v>
       </c>
       <c r="B29" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" t="s">
@@ -9015,8 +9051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -9030,7 +9066,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9039,7 +9075,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -9068,7 +9104,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>816</v>
+        <v>794</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -9077,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9085,7 +9121,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>815</v>
+        <v>793</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -9094,10 +9130,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="14" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>792</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -9106,29 +9142,29 @@
     </row>
     <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="14" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
       <c r="B7" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="14" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
       <c r="B8" t="s">
-        <v>810</v>
+        <v>906</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>563</v>
+        <v>903</v>
       </c>
       <c r="E8" t="s">
         <v>328</v>
@@ -9136,29 +9172,29 @@
     </row>
     <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="14" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
       <c r="B9" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="32.4">
       <c r="A10" s="14" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="B10" t="s">
-        <v>806</v>
+        <v>907</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
-        <v>563</v>
+        <v>903</v>
       </c>
       <c r="E10" t="s">
         <v>328</v>
@@ -9166,29 +9202,29 @@
     </row>
     <row r="11" spans="1:5" ht="32.4">
       <c r="A11" s="14" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="B11" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32.4">
       <c r="A12" s="14" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="B12" t="s">
-        <v>802</v>
+        <v>908</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="E12" t="s">
         <v>328</v>
@@ -9196,29 +9232,29 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="B13" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="B14" t="s">
-        <v>798</v>
+        <v>909</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -9226,29 +9262,29 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="B15" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="B16" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="E16" t="s">
         <v>328</v>
@@ -9256,146 +9292,146 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="B17" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="B18" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="16" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="B20" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="16" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="B21" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="16" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="B22" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="D22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="32.4">
       <c r="A23" s="14" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="B23" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="D23" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="B24" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="32.4">
       <c r="A25" s="14" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="B25" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="D25" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="B26" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -9403,58 +9439,58 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="B27" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="B28" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="32.4">
       <c r="A29" s="14" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="B29" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="B30" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="D30" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="E30" t="s">
         <v>328</v>
@@ -9462,198 +9498,198 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="B31" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D31" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E31" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="B32" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="D32" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E32" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="32.4">
       <c r="A33" s="14" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="B33" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="D33" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E33" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="32.4">
       <c r="A34" s="14" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="B34" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="D34" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="E34" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="B35" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="D35" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="B36" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="D36" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E36" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="B37" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="D37" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E37" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="B38" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="D38" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
       <c r="E38" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="32.4">
       <c r="A39" s="14" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="B39" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="D39" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E39" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="B40" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="D40" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E40" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="B41" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="D41" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B42" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="D42" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E42" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="32.4">
       <c r="A43" s="14" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="B43" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="D43" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="E43" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="B44" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="D44" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E44" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9661,7 +9697,7 @@
         <v>327</v>
       </c>
       <c r="B45" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -9672,7 +9708,7 @@
         <v>324</v>
       </c>
       <c r="B46" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -9683,7 +9719,7 @@
         <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -9694,7 +9730,7 @@
         <v>319</v>
       </c>
       <c r="B48" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -9708,7 +9744,7 @@
         <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="D49" t="s">
         <v>43</v>
@@ -9743,7 +9779,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9752,7 +9788,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -9781,7 +9817,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>35</v>
@@ -9792,10 +9828,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="B5" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" t="s">
@@ -9804,10 +9840,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="B6" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" t="s">
@@ -9816,10 +9852,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="B7" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" t="s">
@@ -9828,10 +9864,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="B8" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" t="s">
@@ -9840,10 +9876,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="B9" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" t="s">
@@ -9852,10 +9888,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="B10" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" t="s">
@@ -9892,7 +9928,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9901,7 +9937,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -9930,7 +9966,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>35</v>
@@ -9941,25 +9977,25 @@
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1">
       <c r="A5" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="B5" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="B6" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" t="s">
@@ -9968,10 +10004,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="B7" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" t="s">
@@ -9980,10 +10016,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="B8" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" t="s">
@@ -9992,10 +10028,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="B9" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" t="s">
@@ -10004,10 +10040,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="B10" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" t="s">
@@ -10222,14 +10258,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>830</v>
+        <v>808</v>
       </c>
       <c r="B5" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -1328,9 +1328,6 @@
     <t>觀光遊憩據點(縣市)人次統計-資料年度</t>
   </si>
   <si>
-    <t>T_HotelUseRate</t>
-  </si>
-  <si>
     <t>觀光旅館住用率</t>
   </si>
   <si>
@@ -1746,10 +1743,6 @@
     <t>MR_ID</t>
   </si>
   <si>
-    <t>資料表名稱：Mayor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>市長副市長</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1871,9 +1864,6 @@
     <t>零售業營利事業平均每家銷售額-資料年度</t>
   </si>
   <si>
-    <t>nvarchar(7)</t>
-  </si>
-  <si>
     <t>零售業營利事業銷售額成長率</t>
   </si>
   <si>
@@ -2450,9 +2440,6 @@
     <t>單位:%</t>
   </si>
   <si>
-    <t>Edu_BudgetUpRate</t>
-  </si>
-  <si>
     <t>教育預算成長率</t>
   </si>
   <si>
@@ -2506,9 +2493,6 @@
     <t>國中小教師數-資料年度</t>
   </si>
   <si>
-    <t>Edu_ESToJSNewInhabitantsRate</t>
-  </si>
-  <si>
     <t>國中小新住民學生比例</t>
   </si>
   <si>
@@ -2530,9 +2514,6 @@
     <t>國中小新住民人數-資料年度</t>
   </si>
   <si>
-    <t>Edu_ESToHSIndigenousRate</t>
-  </si>
-  <si>
     <t>國小-高中(職)原住民學生數比例</t>
   </si>
   <si>
@@ -2589,9 +2570,6 @@
   </si>
   <si>
     <t>國小總學生數-資料年度</t>
-  </si>
-  <si>
-    <t>Edu_JSStudentDropOutRate</t>
   </si>
   <si>
     <t>國中學生輟學率</t>
@@ -2979,11 +2957,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汽車路邊停車位-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadsidParkSpaceYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農業產值成長率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_FarmingLossYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售業營利事業銷售額-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_PeopleTotalPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ChildPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_TeenagerPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_OldMenPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HotelUseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_PublicTransportRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Tra_100HaveCarRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tra_PublicTransportRate</t>
+    <t>Fa_FarmingOutputRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱：Mayor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re_RetailBusinessSalesRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_BurglaryClearanceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_CriminalCaseClearanceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_ViolentCrimesClearanceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ene_ReEnergyOfElectricityRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_DisabledPersonOfCityRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_LongTermPersonOfOldMenRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_15upJSDownRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_15upHSRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESStudentDropOutRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_JSStudentDropOutRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESToHSIndigenousRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESToJSNewInhabitantsRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_BudgetUpRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2991,107 +3097,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小汽車路邊停車位-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_CarRoadsidParkSpaceYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農業產值成長率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_FarmingLossYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售業營利事業銷售額-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Re_RetailBusinessSalesRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ene_ReEnergyOfElectricityRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_DisabledPersonOfCityRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_LongTermPersonOfOldMenRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_PeopleTotalPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_ChildPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_TeenagerPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_OldMenPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Child</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_FarmingOutputRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_BurglaryClearanceRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_CriminalCaseClearanceRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_ViolentCrimesClearanceRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_15upJSDownRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_15upHSRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Edu_15upUSUpRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_ESStudentDropOutRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3156,7 +3162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3166,6 +3172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3187,7 +3199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3265,6 +3277,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3567,7 +3585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3604,18 +3622,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3687,7 +3705,7 @@
         <v>土地人口</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3696,7 +3714,7 @@
         <v>觀光</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3705,7 +3723,7 @@
         <v>交通</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3714,7 +3732,7 @@
         <v>農業</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3723,7 +3741,7 @@
         <v>市長副市長</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3732,7 +3750,7 @@
         <v>產業</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3741,7 +3759,7 @@
         <v>零售</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3750,7 +3768,7 @@
         <v>安全</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3759,7 +3777,7 @@
         <v>能源</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3768,7 +3786,7 @@
         <v>健康</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3777,7 +3795,7 @@
         <v>教育</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -3969,10 +3987,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B13" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="D13" t="s">
         <v>278</v>
@@ -3980,10 +3998,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B14" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D14" t="s">
         <v>278</v>
@@ -3991,10 +4009,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B15" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -4002,10 +4020,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B16" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4035,10 +4053,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B19" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -4816,10 +4834,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B15" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -4827,10 +4845,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B16" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4838,10 +4856,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B17" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="D17" t="s">
         <v>278</v>
@@ -4849,10 +4867,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B18" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="D18" t="s">
         <v>278</v>
@@ -4882,10 +4900,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B21" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -5027,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5178,7 +5196,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B11" t="s">
         <v>337</v>
@@ -5196,11 +5214,11 @@
         <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" t="s">
-        <v>896</v>
+      <c r="D12" s="26" t="s">
+        <v>882</v>
       </c>
       <c r="E12" t="s">
         <v>328</v>
@@ -5208,10 +5226,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20" t="s">
@@ -5226,7 +5244,7 @@
         <v>332</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>900</v>
+        <v>885</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20" t="s">
@@ -5238,10 +5256,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20" t="s">
@@ -5253,14 +5271,14 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="20" t="s">
-        <v>896</v>
+      <c r="D16" s="26" t="s">
+        <v>882</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>328</v>
@@ -5268,10 +5286,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="20" t="s">
@@ -5286,7 +5304,7 @@
         <v>331</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="20" t="s">
@@ -5298,10 +5316,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="20" t="s">
@@ -5313,14 +5331,14 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>328</v>
@@ -5328,10 +5346,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20" t="s">
@@ -5346,7 +5364,7 @@
         <v>330</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20" t="s">
@@ -5358,10 +5376,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
@@ -5373,13 +5391,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B24" t="s">
-        <v>899</v>
-      </c>
-      <c r="D24" t="s">
-        <v>896</v>
+        <v>888</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>882</v>
       </c>
       <c r="E24" t="s">
         <v>328</v>
@@ -5461,7 +5479,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5475,7 +5493,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5484,7 +5502,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -5513,7 +5531,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -5530,7 +5548,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -5542,7 +5560,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -5551,10 +5569,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -5566,14 +5584,14 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
-        <v>383</v>
+        <v>889</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" t="s">
-        <v>896</v>
+      <c r="D8" s="26" t="s">
+        <v>882</v>
       </c>
       <c r="E8" t="s">
         <v>328</v>
@@ -5786,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -5801,7 +5819,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -5810,7 +5828,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -5839,7 +5857,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -5856,7 +5874,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -5868,7 +5886,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -5877,10 +5895,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -5892,25 +5910,25 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B8" t="s">
-        <v>882</v>
+        <v>430</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>890</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" t="s">
-        <v>883</v>
+      <c r="D8" s="26" t="s">
+        <v>874</v>
       </c>
       <c r="E8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B9" t="s">
         <v>429</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
@@ -5922,25 +5940,25 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B10" s="11" t="s">
         <v>427</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>426</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="B11" t="s">
-        <v>885</v>
+        <v>875</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>876</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
@@ -5952,25 +5970,25 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="B12" t="s">
-        <v>874</v>
+        <v>866</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>867</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="B13" t="s">
-        <v>875</v>
+        <v>864</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>868</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
@@ -5982,25 +6000,25 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>872</v>
-      </c>
-      <c r="B14" t="s">
-        <v>876</v>
+        <v>865</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>869</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" t="s">
         <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B15" t="s">
         <v>423</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>422</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" t="s">
@@ -6012,24 +6030,24 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>422</v>
-      </c>
-      <c r="B16" t="s">
-        <v>880</v>
+        <v>421</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>873</v>
       </c>
       <c r="D16" t="s">
         <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B17" t="s">
         <v>419</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>418</v>
       </c>
       <c r="D17" t="s">
         <v>334</v>
@@ -6040,25 +6058,25 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>418</v>
-      </c>
-      <c r="B18" t="s">
         <v>417</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>416</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B19" t="s">
         <v>415</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>414</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -6070,55 +6088,55 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>414</v>
-      </c>
-      <c r="B20" t="s">
         <v>413</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>412</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" t="s">
         <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="B21" t="s">
         <v>410</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>409</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" t="s">
         <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="B22" t="s">
-        <v>881</v>
+        <v>407</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>891</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" t="s">
-        <v>883</v>
+      <c r="D22" s="26" t="s">
+        <v>874</v>
       </c>
       <c r="E22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
@@ -6130,25 +6148,25 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
         <v>360</v>
       </c>
       <c r="E24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" t="s">
@@ -6160,17 +6178,17 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
         <v>360</v>
       </c>
       <c r="E26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6178,7 +6196,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D27" t="s">
         <v>325</v>
@@ -6189,7 +6207,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D28" t="s">
         <v>320</v>
@@ -6200,7 +6218,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D29" t="s">
         <v>320</v>
@@ -6211,7 +6229,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -6225,7 +6243,7 @@
         <v>316</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -6247,8 +6265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6261,7 +6279,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6270,7 +6288,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6299,7 +6317,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6316,7 +6334,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6328,7 +6346,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6337,10 +6355,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -6352,25 +6370,25 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
@@ -6382,25 +6400,25 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
@@ -6412,25 +6430,25 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
@@ -6442,24 +6460,24 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D14" t="s">
         <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D15" t="s">
         <v>334</v>
@@ -6470,25 +6488,25 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -6500,25 +6518,25 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -6530,44 +6548,44 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" t="s">
         <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" t="s">
         <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="B22" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" t="s">
-        <v>896</v>
+      <c r="D22" s="26" t="s">
+        <v>882</v>
       </c>
       <c r="E22" t="s">
         <v>328</v>
@@ -6575,10 +6593,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
@@ -6590,10 +6608,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B24" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
@@ -6605,10 +6623,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" t="s">
@@ -6620,17 +6638,17 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
         <v>360</v>
       </c>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6638,7 +6656,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D27" t="s">
         <v>325</v>
@@ -6649,7 +6667,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D28" t="s">
         <v>320</v>
@@ -6660,7 +6678,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D29" t="s">
         <v>320</v>
@@ -6671,7 +6689,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -6685,7 +6703,7 @@
         <v>316</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -6709,7 +6727,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6723,7 +6741,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -6732,7 +6750,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>513</v>
+        <v>893</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -6761,7 +6779,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6778,7 +6796,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6790,7 +6808,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6799,14 +6817,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -6814,10 +6832,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
@@ -6826,14 +6844,14 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -6841,10 +6859,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
@@ -6853,14 +6871,14 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -6868,10 +6886,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
@@ -6880,14 +6898,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -6895,10 +6913,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -6909,7 +6927,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -6920,7 +6938,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -6932,7 +6950,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -6944,7 +6962,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -6959,7 +6977,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -6995,7 +7013,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7004,7 +7022,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7033,7 +7051,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7050,7 +7068,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7062,7 +7080,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7071,14 +7089,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
         <v>370</v>
@@ -7086,29 +7104,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E8" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B9" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -7116,29 +7134,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -7146,29 +7164,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -7176,16 +7194,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7193,7 +7211,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -7204,7 +7222,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -7216,7 +7234,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -7228,7 +7246,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -7243,7 +7261,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -7264,8 +7282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7279,7 +7297,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7288,7 +7306,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7317,7 +7335,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7334,7 +7352,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7346,7 +7364,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7355,14 +7373,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -7370,14 +7388,14 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B8" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E8" t="s">
         <v>370</v>
@@ -7385,14 +7403,14 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -7400,14 +7418,14 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
         <v>329</v>
@@ -7415,14 +7433,14 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -7430,29 +7448,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -7460,27 +7478,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="B15" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
@@ -7488,44 +7506,44 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B16" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B17" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B18" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" t="s">
-        <v>890</v>
+      <c r="D18" s="26" t="s">
+        <v>880</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -7533,14 +7551,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
         <v>333</v>
@@ -7548,16 +7566,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B20" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7565,7 +7583,7 @@
         <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -7576,7 +7594,7 @@
         <v>324</v>
       </c>
       <c r="B22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -7587,7 +7605,7 @@
         <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -7598,7 +7616,7 @@
         <v>319</v>
       </c>
       <c r="B24" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -7612,7 +7630,7 @@
         <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -7632,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7647,7 +7665,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7656,7 +7674,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7685,7 +7703,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7702,7 +7720,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7714,7 +7732,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7723,14 +7741,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -7738,29 +7756,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -7768,29 +7786,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B10" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B11" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -7798,29 +7816,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B12" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E12" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B13" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -7828,27 +7846,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D14" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B15" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
@@ -7856,29 +7874,29 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B16" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E16" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B17" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
         <v>333</v>
@@ -7886,14 +7904,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B18" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" t="s">
-        <v>903</v>
+      <c r="D18" s="26" t="s">
+        <v>883</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -7901,14 +7919,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B19" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
         <v>333</v>
@@ -7916,27 +7934,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B20" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E20" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B21" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
         <v>333</v>
@@ -7944,13 +7962,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B22" t="s">
-        <v>904</v>
-      </c>
-      <c r="D22" t="s">
-        <v>903</v>
+        <v>896</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>883</v>
       </c>
       <c r="E22" t="s">
         <v>328</v>
@@ -7958,13 +7976,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B23" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E23" t="s">
         <v>333</v>
@@ -7972,27 +7990,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B24" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E24" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B25" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
         <v>333</v>
@@ -8000,13 +8018,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B26" t="s">
-        <v>905</v>
-      </c>
-      <c r="D26" t="s">
-        <v>903</v>
+        <v>897</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>883</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -8017,7 +8035,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -8028,7 +8046,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -8039,7 +8057,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -8050,7 +8068,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -8064,7 +8082,7 @@
         <v>316</v>
       </c>
       <c r="B31" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -8324,7 +8342,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -8338,7 +8356,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8347,7 +8365,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -8376,7 +8394,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -8393,7 +8411,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -8405,7 +8423,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -8414,14 +8432,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -8429,29 +8447,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B8" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E8" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -8459,29 +8477,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B10" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -8489,29 +8507,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B13" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -8519,13 +8537,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B14" t="s">
-        <v>891</v>
-      </c>
-      <c r="D14" t="s">
-        <v>892</v>
+        <v>898</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>881</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -8536,7 +8554,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -8547,7 +8565,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -8559,7 +8577,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -8571,7 +8589,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -8586,7 +8604,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -8607,8 +8625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -8621,7 +8639,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="25" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -8630,7 +8648,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -8659,7 +8677,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -8671,10 +8689,10 @@
         <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="H4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8682,17 +8700,17 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8700,7 +8718,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -8709,14 +8727,14 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -8724,29 +8742,29 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E8" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B9" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -8754,29 +8772,29 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B11" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -8784,14 +8802,14 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B12" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E12" t="s">
         <v>329</v>
@@ -8799,14 +8817,14 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -8814,14 +8832,14 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B14" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" t="s">
-        <v>892</v>
+      <c r="D14" s="26" t="s">
+        <v>881</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -8829,14 +8847,14 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
@@ -8844,14 +8862,14 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E16" t="s">
         <v>329</v>
@@ -8859,14 +8877,14 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B17" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
         <v>333</v>
@@ -8874,14 +8892,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B18" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" t="s">
-        <v>892</v>
+      <c r="D18" s="26" t="s">
+        <v>881</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -8889,14 +8907,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B19" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
         <v>333</v>
@@ -8904,29 +8922,29 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B20" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E20" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B21" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
         <v>333</v>
@@ -8934,27 +8952,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B22" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E22" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E23" t="s">
         <v>333</v>
@@ -8962,17 +8980,17 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B24" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8980,7 +8998,7 @@
         <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -8991,7 +9009,7 @@
         <v>324</v>
       </c>
       <c r="B26" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
@@ -9003,7 +9021,7 @@
         <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" t="s">
@@ -9015,7 +9033,7 @@
         <v>319</v>
       </c>
       <c r="B28" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" t="s">
@@ -9030,7 +9048,7 @@
         <v>316</v>
       </c>
       <c r="B29" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" t="s">
@@ -9051,8 +9069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -9066,7 +9084,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9075,7 +9093,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -9104,7 +9122,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -9121,7 +9139,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -9133,7 +9151,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -9142,14 +9160,14 @@
     </row>
     <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="14" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B7" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -9157,14 +9175,14 @@
     </row>
     <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="14" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="B8" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" t="s">
-        <v>903</v>
+      <c r="D8" s="26" t="s">
+        <v>883</v>
       </c>
       <c r="E8" t="s">
         <v>328</v>
@@ -9172,14 +9190,14 @@
     </row>
     <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="14" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B9" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -9187,14 +9205,14 @@
     </row>
     <row r="10" spans="1:5" ht="32.4">
       <c r="A10" s="14" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B10" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" t="s">
-        <v>903</v>
+      <c r="D10" s="26" t="s">
+        <v>883</v>
       </c>
       <c r="E10" t="s">
         <v>328</v>
@@ -9202,14 +9220,14 @@
     </row>
     <row r="11" spans="1:5" ht="32.4">
       <c r="A11" s="14" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="B11" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -9217,14 +9235,14 @@
     </row>
     <row r="12" spans="1:5" ht="32.4">
       <c r="A12" s="14" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="B12" t="s">
+        <v>909</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="26" t="s">
         <v>908</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" t="s">
-        <v>553</v>
       </c>
       <c r="E12" t="s">
         <v>328</v>
@@ -9232,14 +9250,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="B13" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -9247,14 +9265,14 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B14" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" t="s">
-        <v>879</v>
+      <c r="D14" s="26" t="s">
+        <v>872</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -9262,14 +9280,14 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B15" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
@@ -9277,14 +9295,14 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B16" t="s">
-        <v>776</v>
+        <v>904</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" t="s">
-        <v>879</v>
+      <c r="D16" s="26" t="s">
+        <v>872</v>
       </c>
       <c r="E16" t="s">
         <v>328</v>
@@ -9292,14 +9310,14 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B17" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
         <v>333</v>
@@ -9307,14 +9325,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B18" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E18" t="s">
         <v>329</v>
@@ -9322,14 +9340,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="16" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B19" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E19" t="s">
         <v>333</v>
@@ -9337,14 +9355,14 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B20" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E20" t="s">
         <v>329</v>
@@ -9352,14 +9370,14 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="16" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B21" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E21" t="s">
         <v>333</v>
@@ -9367,13 +9385,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="16" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B22" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E22" t="s">
         <v>329</v>
@@ -9381,13 +9399,13 @@
     </row>
     <row r="23" spans="1:5" ht="32.4">
       <c r="A23" s="14" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B23" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E23" t="s">
         <v>333</v>
@@ -9395,14 +9413,14 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B24" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E24" t="s">
         <v>329</v>
@@ -9410,13 +9428,13 @@
     </row>
     <row r="25" spans="1:5" ht="32.4">
       <c r="A25" s="14" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B25" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E25" t="s">
         <v>333</v>
@@ -9424,14 +9442,14 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B26" t="s">
-        <v>756</v>
+        <v>905</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" t="s">
-        <v>879</v>
+      <c r="D26" s="26" t="s">
+        <v>872</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -9439,14 +9457,14 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B27" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E27" t="s">
         <v>333</v>
@@ -9454,14 +9472,14 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B28" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E28" t="s">
         <v>329</v>
@@ -9469,14 +9487,14 @@
     </row>
     <row r="29" spans="1:5" ht="32.4">
       <c r="A29" s="14" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B29" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E29" t="s">
         <v>333</v>
@@ -9484,13 +9502,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B30" t="s">
-        <v>748</v>
-      </c>
-      <c r="D30" t="s">
-        <v>879</v>
+        <v>906</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>872</v>
       </c>
       <c r="E30" t="s">
         <v>328</v>
@@ -9498,13 +9516,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B31" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E31" t="s">
         <v>333</v>
@@ -9512,27 +9530,27 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B32" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E32" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="32.4">
       <c r="A33" s="14" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B33" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E33" t="s">
         <v>333</v>
@@ -9540,27 +9558,27 @@
     </row>
     <row r="34" spans="1:5" ht="32.4">
       <c r="A34" s="14" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B34" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D34" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="E34" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B35" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E35" t="s">
         <v>333</v>
@@ -9568,52 +9586,52 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B36" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D36" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B37" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D37" t="s">
         <v>360</v>
       </c>
       <c r="E37" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B38" t="s">
-        <v>730</v>
-      </c>
-      <c r="D38" t="s">
-        <v>879</v>
+        <v>907</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>872</v>
       </c>
       <c r="E38" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="32.4">
       <c r="A39" s="14" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B39" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D39" t="s">
         <v>334</v>
@@ -9624,27 +9642,27 @@
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B40" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D40" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B41" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E41" t="s">
         <v>333</v>
@@ -9652,27 +9670,27 @@
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B42" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D42" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E42" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="32.4">
       <c r="A43" s="14" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B43" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E43" t="s">
         <v>333</v>
@@ -9680,16 +9698,16 @@
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B44" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D44" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E44" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9697,7 +9715,7 @@
         <v>327</v>
       </c>
       <c r="B45" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -9708,7 +9726,7 @@
         <v>324</v>
       </c>
       <c r="B46" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D46" t="s">
         <v>4</v>
@@ -9719,7 +9737,7 @@
         <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D47" t="s">
         <v>4</v>
@@ -9730,7 +9748,7 @@
         <v>319</v>
       </c>
       <c r="B48" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -9744,7 +9762,7 @@
         <v>316</v>
       </c>
       <c r="B49" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D49" t="s">
         <v>43</v>
@@ -9779,7 +9797,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9788,7 +9806,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -9817,7 +9835,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>35</v>
@@ -9828,10 +9846,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B5" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" t="s">
@@ -9840,10 +9858,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B6" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" t="s">
@@ -9852,10 +9870,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B7" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" t="s">
@@ -9864,10 +9882,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B8" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" t="s">
@@ -9876,10 +9894,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B9" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" t="s">
@@ -9888,10 +9906,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B10" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" t="s">
@@ -9928,7 +9946,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -9937,7 +9955,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="24" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -9966,7 +9984,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>35</v>
@@ -9977,25 +9995,25 @@
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1">
       <c r="A5" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B5" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B6" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" t="s">
@@ -10004,10 +10022,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B7" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" t="s">
@@ -10016,10 +10034,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B8" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" t="s">
@@ -10028,10 +10046,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B9" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" t="s">
@@ -10040,10 +10058,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B10" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" t="s">
@@ -10258,14 +10276,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B5" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/ISTI_CityNavigation/Docs/DD.xlsx
+++ b/ISTI_CityNavigation/Docs/DD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13176" tabRatio="778" firstSheet="9" activeTab="21"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="13176" tabRatio="778" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="964">
   <si>
     <t>成員基本資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,18 +1256,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_HotelAvgPrice</t>
-  </si>
-  <si>
     <t>觀光旅館平均房價</t>
   </si>
   <si>
-    <t>T_HotelAvgPriceYear</t>
-  </si>
-  <si>
-    <t>觀光旅館平均房價-資料年度</t>
-  </si>
-  <si>
     <t>單位:間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1377,18 +1368,12 @@
     <t>人</t>
   </si>
   <si>
-    <t>Tra_100KNumberOfCasualties</t>
-  </si>
-  <si>
     <t>每十萬人道路交通事故死傷人數</t>
   </si>
   <si>
     <t>Tra_100KNumberOfCasualtiesYear</t>
   </si>
   <si>
-    <t>每十萬人道路交通事故死傷人數-資料年度</t>
-  </si>
-  <si>
     <t>次</t>
   </si>
   <si>
@@ -1410,9 +1395,6 @@
     <t>每百人擁有汽車數成長率</t>
   </si>
   <si>
-    <t>ex:105-106年成長率</t>
-  </si>
-  <si>
     <t>Tra_100HaveCarRateYearDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1430,9 +1412,6 @@
     <t>每百人擁有汽車數</t>
   </si>
   <si>
-    <t>Tra_100HaveCarYear</t>
-  </si>
-  <si>
     <t>每百人擁有汽車數-資料年度</t>
   </si>
   <si>
@@ -1466,25 +1445,15 @@
     <t>分鐘</t>
   </si>
   <si>
-    <t>Tra_CarParkTime</t>
-  </si>
-  <si>
     <t>自小客車在居家附近每次尋找停車位時間</t>
   </si>
   <si>
-    <t>Tra_CarParkTimeYear</t>
-  </si>
-  <si>
     <t>自小客車在居家附近每次尋找停車位時間-資料年度</t>
   </si>
   <si>
     <t>通勤學民眾運具次數之公共運具市佔率</t>
   </si>
   <si>
-    <t>Tra_PublicTransportRateYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通勤學民眾運具次數之公共運具市佔率-資料年度</t>
   </si>
   <si>
@@ -1492,10 +1461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tra_CityNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tra_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1992,10 +1957,6 @@
     <t>Sf_100KPeopleViolentCrimesTimesYear</t>
   </si>
   <si>
-    <t>每十萬人暴力犯罪發生數-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刑案破獲率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2229,16 +2190,9 @@
     <t>Hea_CreateDate</t>
   </si>
   <si>
-    <t>Hea_GOVPayOfNHI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>政府部門醫療保健支出</t>
   </si>
   <si>
-    <t>Hea_GOVPayOfNHIYear</t>
-  </si>
-  <si>
     <t>政府部門醫療保健支出-資料年度</t>
   </si>
   <si>
@@ -2255,10 +2209,6 @@
     <t>Hea_MedicalInstitutionsAvgPersonYear</t>
   </si>
   <si>
-    <t>平均每一醫療機構服務人數-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>單位:所</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2397,17 +2347,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Edu_ESJSAvgPCNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>國中小平均每人教學電腦數</t>
   </si>
   <si>
     <t>Edu_ESJSAvgPCNumYear</t>
-  </si>
-  <si>
-    <t>國中小平均每人教學電腦數-資料年度</t>
   </si>
   <si>
     <t>Edu_ESJSPCNum</t>
@@ -2938,114 +2881,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否含全區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_AllArea</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_10KHaveCarPark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小汽車路邊停車位-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarRoadsidParkSpaceYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>農業產值成長率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_FarmingLossYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售業營利事業銷售額-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_PeopleTotalPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_Child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ChildPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_TeenagerPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_OldMenPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HotelUseRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_PublicTransportRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_100HaveCarRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fa_FarmingOutputRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表名稱：Mayor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re_RetailBusinessSalesRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_BurglaryClearanceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_CriminalCaseClearanceRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ene_ReEnergyOfElectricityRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_DisabledPersonOfCityRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_LongTermPersonOfOldMenRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_15upJSDownRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_15upHSRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESStudentDropOutRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_JSStudentDropOutRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESToHSIndigenousRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESToJSNewInhabitantsRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_BudgetUpRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_15upUSUpRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自小客車工作(上學)場所附近平均每次尋找停車位時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每十萬人道路交通事故死傷人數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自小客車工作(上學)場所附近平均每次尋找停車位時間-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路交通事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路交通事故-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_100KNumberOfCasualties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Tra_CarRoadOutsideParkSpace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否含全區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CP_AllArea</t>
+    <t>Tra_CarParkTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CarParkTimeYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_RoadTrafficAccident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_PlaceCarParkTimeYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_RoadTrafficAccidentYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQI&gt;100日數比例(&gt;100表示對健康已有影響)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每十萬人暴力犯罪發生數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQI&gt;100日數比例(&gt;100表示對健康已有影響)-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失智人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病死亡人數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均每一醫療機構服務人數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失智人口-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病死亡人數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_GOVPayOfNHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_DementedPopulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_GOVPayOfNHIYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_DementedPopulationYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_DiabetesDeaths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hea_DiabetesDeathsYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nvarchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tra_10KHaveCarPark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小汽車路邊停車位-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_CarRoadsidParkSpaceYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>農業產值成長率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_FarmingLossYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售業營利事業銷售額-資料年度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_PeopleTotalPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_Child</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_ChildPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_TeenagerPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P_OldMenPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_HotelUseRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_PublicTransportRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tra_100HaveCarRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fa_FarmingOutputRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料表名稱：Mayor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Re_RetailBusinessSalesRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_BurglaryClearanceRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sf_CriminalCaseClearanceRate</t>
+    <t>空氣品質AQI平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空氣品質AQI平均值-資料年度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3053,51 +3172,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ene_ReEnergyOfElectricityRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_DisabledPersonOfCityRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hea_LongTermPersonOfOldMenRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_15upJSDownRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_15upHSRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_ESStudentDropOutRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_JSStudentDropOutRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_ESToHSIndigenousRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_ESToJSNewInhabitantsRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_BudgetUpRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edu_15upUSUpRate</t>
+    <t>Sf_AQI100DayRateYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_AQI100DayRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_AirQualityAQIAverageValueYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sf_AirQualityAQIAverageValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高級中等以下偏遠地區學校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國中小平均每人教學電腦數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高級中等以下偏遠地區學校-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_ESJSAvgPCNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_HighschoolDownRemoteAreasYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edu_HighschoolDownRemoteAreas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觀光旅館平均房價-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民宿家數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民宿房間數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般旅館家數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般旅館房間數-資料年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HotelAvgPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HotelAvgPriceYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_PlaceCarParkTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_100HaveCarYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex:105-106年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_CityNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tra_PublicTransportRateYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HomestayNumberYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HomestayRoomNumberYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HomestayRoomNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_GeneralHotelNumberYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_GeneralHotelNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_GeneralHotelRoomNumberYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_GeneralHotelRoomNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民宿家數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民宿房間數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般旅館家數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般旅館房間數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_HomestayNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位:間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3105,7 +3332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3161,6 +3388,22 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3199,7 +3442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3269,6 +3512,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3277,12 +3553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3606,10 +3876,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="str">
@@ -3622,18 +3892,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3705,7 +3975,7 @@
         <v>土地人口</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>790</v>
+        <v>773</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3714,7 +3984,7 @@
         <v>觀光</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>791</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3723,7 +3993,7 @@
         <v>交通</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3732,7 +4002,7 @@
         <v>農業</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3741,7 +4011,7 @@
         <v>市長副市長</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>794</v>
+        <v>777</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3750,7 +4020,7 @@
         <v>產業</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3759,7 +4029,7 @@
         <v>零售</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>796</v>
+        <v>779</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3768,7 +4038,7 @@
         <v>安全</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>797</v>
+        <v>780</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3777,7 +4047,7 @@
         <v>能源</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>798</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3786,7 +4056,7 @@
         <v>健康</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>799</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3795,7 +4065,7 @@
         <v>教育</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -3849,22 +4119,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -3987,10 +4257,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="B13" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
       <c r="D13" t="s">
         <v>278</v>
@@ -3998,10 +4268,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="B14" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
       <c r="D14" t="s">
         <v>278</v>
@@ -4009,10 +4279,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="B15" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -4020,10 +4290,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="B16" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4053,10 +4323,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="B19" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -4674,22 +4944,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -4834,10 +5104,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="B15" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -4845,10 +5115,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="B16" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -4856,10 +5126,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="B17" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="D17" t="s">
         <v>278</v>
@@ -4867,10 +5137,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
       <c r="B18" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
       <c r="D18" t="s">
         <v>278</v>
@@ -4900,10 +5170,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="B21" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -5059,22 +5329,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -5196,7 +5466,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="B11" t="s">
         <v>337</v>
@@ -5214,11 +5484,11 @@
         <v>335</v>
       </c>
       <c r="B12" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="26" t="s">
-        <v>882</v>
+      <c r="D12" s="23" t="s">
+        <v>864</v>
       </c>
       <c r="E12" t="s">
         <v>328</v>
@@ -5226,10 +5496,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="20" t="s">
@@ -5244,7 +5514,7 @@
         <v>332</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20" t="s">
@@ -5256,10 +5526,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20" t="s">
@@ -5271,14 +5541,14 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="26" t="s">
-        <v>882</v>
+      <c r="D16" s="23" t="s">
+        <v>864</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>328</v>
@@ -5286,10 +5556,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="20" t="s">
-        <v>811</v>
+        <v>794</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="20" t="s">
@@ -5304,7 +5574,7 @@
         <v>331</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>821</v>
+        <v>804</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="20" t="s">
@@ -5316,10 +5586,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
-        <v>814</v>
+        <v>797</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>813</v>
+        <v>796</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="20" t="s">
@@ -5331,14 +5601,14 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>328</v>
@@ -5346,10 +5616,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20" t="s">
@@ -5364,7 +5634,7 @@
         <v>330</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20" t="s">
@@ -5376,10 +5646,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="20" t="s">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>817</v>
+        <v>800</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
@@ -5391,13 +5661,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="B24" t="s">
-        <v>888</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>882</v>
+        <v>870</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>864</v>
       </c>
       <c r="E24" t="s">
         <v>328</v>
@@ -5476,38 +5746,38 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="45.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -5531,7 +5801,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -5548,7 +5818,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -5560,7 +5830,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -5569,10 +5839,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -5584,14 +5854,14 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="26" t="s">
-        <v>882</v>
+      <c r="D8" s="23" t="s">
+        <v>864</v>
       </c>
       <c r="E8" t="s">
         <v>328</v>
@@ -5599,10 +5869,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
@@ -5614,40 +5884,40 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>320</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
         <v>360</v>
       </c>
       <c r="E11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
@@ -5659,25 +5929,25 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
         <v>360</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
         <v>334</v>
@@ -5688,25 +5958,25 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
         <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>935</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
+        <v>941</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -5718,10 +5988,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>940</v>
       </c>
       <c r="D17" t="s">
         <v>360</v>
@@ -5731,64 +6001,184 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" s="23" t="s">
+        <v>936</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>948</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="23" t="s">
+        <v>957</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="23" t="s">
+        <v>937</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>949</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="23" t="s">
+        <v>958</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="23" t="s">
+        <v>938</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>951</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="23" t="s">
+        <v>959</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>952</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="23" t="s">
+        <v>939</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>953</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="23" t="s">
+        <v>960</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>327</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>358</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>324</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B27" t="s">
         <v>357</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D27" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>322</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B28" t="s">
         <v>356</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D28" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>319</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B29" t="s">
         <v>355</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D29" t="s">
         <v>145</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E29" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E30" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5802,15 +6192,15 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
@@ -5818,22 +6208,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>437</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -5857,7 +6247,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -5874,7 +6264,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>434</v>
+        <v>946</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -5886,7 +6276,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -5895,10 +6285,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>947</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -5910,25 +6300,25 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="26" t="s">
-        <v>874</v>
+      <c r="D8" s="23" t="s">
+        <v>856</v>
       </c>
       <c r="E8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>428</v>
+        <v>900</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
@@ -5940,25 +6330,25 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>426</v>
+        <v>419</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>899</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
@@ -5970,25 +6360,25 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>866</v>
+        <v>849</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>864</v>
+        <v>847</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>868</v>
+        <v>851</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
@@ -6000,25 +6390,25 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>865</v>
+        <v>848</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>869</v>
+        <v>898</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" t="s">
         <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" t="s">
@@ -6030,24 +6420,24 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="D16" t="s">
         <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
         <v>334</v>
@@ -6058,198 +6448,258 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>415</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" t="s">
+      <c r="A19" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>944</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="32" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>413</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" t="s">
+      <c r="A20" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="E20" t="s">
-        <v>411</v>
+      <c r="E20" s="32" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>410</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" t="s">
+      <c r="A21" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="E21" t="s">
-        <v>408</v>
+      <c r="E21" s="32" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>407</v>
-      </c>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="33" t="s">
+        <v>856</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="29" t="s">
+        <v>893</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>897</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="23" t="s">
         <v>891</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="26" t="s">
-        <v>874</v>
-      </c>
-      <c r="E22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>405</v>
-      </c>
-      <c r="B23" t="s">
-        <v>404</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" t="s">
+      <c r="B28" s="23" t="s">
+        <v>942</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="23" t="s">
+        <v>896</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>903</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E29" s="23" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>403</v>
-      </c>
-      <c r="B24" t="s">
-        <v>402</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" t="s">
-        <v>360</v>
-      </c>
-      <c r="E24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>400</v>
-      </c>
-      <c r="B25" t="s">
-        <v>399</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" t="s">
-        <v>334</v>
-      </c>
-      <c r="E25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>398</v>
-      </c>
-      <c r="B26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" t="s">
-        <v>360</v>
-      </c>
-      <c r="E26" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>901</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>327</v>
       </c>
-      <c r="B27" t="s">
-        <v>395</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D31" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>324</v>
       </c>
-      <c r="B28" t="s">
-        <v>394</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D32" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>322</v>
       </c>
-      <c r="B29" t="s">
-        <v>393</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D33" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>319</v>
       </c>
-      <c r="B30" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B34" t="s">
+        <v>389</v>
+      </c>
+      <c r="D34" t="s">
         <v>145</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="9" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
+      <c r="B35" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6258,6 +6708,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6278,22 +6729,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -6317,7 +6768,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6334,7 +6785,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6346,7 +6797,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6355,10 +6806,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
@@ -6370,25 +6821,25 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
@@ -6400,25 +6851,25 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
         <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
@@ -6430,25 +6881,25 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
@@ -6460,24 +6911,24 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D14" t="s">
         <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D15" t="s">
         <v>334</v>
@@ -6488,25 +6939,25 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B16" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -6518,25 +6969,25 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -6548,44 +6999,44 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B20" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" t="s">
         <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" t="s">
         <v>334</v>
       </c>
       <c r="E21" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="B22" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="26" t="s">
-        <v>882</v>
+      <c r="D22" s="23" t="s">
+        <v>864</v>
       </c>
       <c r="E22" t="s">
         <v>328</v>
@@ -6593,10 +7044,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
@@ -6608,10 +7059,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B24" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
@@ -6623,10 +7074,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B25" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" t="s">
@@ -6638,17 +7089,17 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B26" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" t="s">
         <v>360</v>
       </c>
       <c r="E26" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6656,7 +7107,7 @@
         <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D27" t="s">
         <v>325</v>
@@ -6667,7 +7118,7 @@
         <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D28" t="s">
         <v>320</v>
@@ -6678,7 +7129,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D29" t="s">
         <v>320</v>
@@ -6689,7 +7140,7 @@
         <v>319</v>
       </c>
       <c r="B30" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -6703,7 +7154,7 @@
         <v>316</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
@@ -6740,22 +7191,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>893</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>875</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -6779,7 +7230,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -6796,7 +7247,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -6808,7 +7259,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -6817,14 +7268,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -6832,10 +7283,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B8" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
@@ -6844,14 +7295,14 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -6859,10 +7310,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
@@ -6871,14 +7322,14 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -6886,10 +7337,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
@@ -6898,14 +7349,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -6913,10 +7364,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B14" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -6927,7 +7378,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -6938,7 +7389,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -6950,7 +7401,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -6962,7 +7413,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -6977,7 +7428,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -7012,22 +7463,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -7051,7 +7502,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7068,7 +7519,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7080,7 +7531,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7089,44 +7540,44 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E8" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -7134,29 +7585,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -7164,29 +7615,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -7194,16 +7645,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D14" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7211,7 +7662,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -7222,7 +7673,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -7234,7 +7685,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -7246,7 +7697,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -7261,7 +7712,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -7282,7 +7733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -7296,22 +7747,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -7335,7 +7786,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7352,7 +7803,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7364,7 +7815,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7373,14 +7824,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -7388,29 +7839,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B9" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -7418,14 +7869,14 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="B10" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
         <v>329</v>
@@ -7433,14 +7884,14 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B11" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -7448,29 +7899,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B12" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B13" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -7478,27 +7929,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B14" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D14" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E14" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="B15" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
@@ -7506,44 +7957,44 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B16" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E16" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B18" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="26" t="s">
-        <v>880</v>
+      <c r="D18" s="23" t="s">
+        <v>862</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -7551,14 +8002,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B19" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E19" t="s">
         <v>333</v>
@@ -7566,16 +8017,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B20" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D20" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7583,7 +8034,7 @@
         <v>327</v>
       </c>
       <c r="B21" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -7594,7 +8045,7 @@
         <v>324</v>
       </c>
       <c r="B22" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -7605,7 +8056,7 @@
         <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -7616,7 +8067,7 @@
         <v>319</v>
       </c>
       <c r="B24" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
@@ -7630,7 +8081,7 @@
         <v>316</v>
       </c>
       <c r="B25" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -7648,15 +8099,15 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
@@ -7664,22 +8115,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>629</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -7703,7 +8154,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -7720,7 +8171,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -7732,7 +8183,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -7741,14 +8192,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="B7" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -7756,29 +8207,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="B8" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="B9" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -7786,29 +8237,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="B10" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -7816,29 +8267,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B12" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B13" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -7846,27 +8297,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B14" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="D14" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E14" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="11" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B15" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
@@ -7874,29 +8325,29 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B16" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E16" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B17" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E17" t="s">
         <v>333</v>
@@ -7904,14 +8355,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B18" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="26" t="s">
-        <v>883</v>
+      <c r="D18" s="23" t="s">
+        <v>865</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -7919,14 +8370,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E19" t="s">
         <v>333</v>
@@ -7934,27 +8385,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B20" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D20" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E20" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B21" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E21" t="s">
         <v>333</v>
@@ -7962,13 +8413,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B22" t="s">
-        <v>896</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>883</v>
+        <v>878</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>865</v>
       </c>
       <c r="E22" t="s">
         <v>328</v>
@@ -7976,13 +8427,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>591</v>
+        <v>905</v>
       </c>
       <c r="B23" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E23" t="s">
         <v>333</v>
@@ -7990,27 +8441,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B24" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E24" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B25" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D25" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E25" t="s">
         <v>333</v>
@@ -8018,73 +8469,131 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B26" t="s">
-        <v>897</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>883</v>
+        <v>924</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>865</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="A27" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="27" t="s">
+        <v>923</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="27" t="s">
+        <v>922</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>327</v>
       </c>
-      <c r="B27" t="s">
-        <v>583</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B31" t="s">
+        <v>572</v>
+      </c>
+      <c r="D31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>324</v>
       </c>
-      <c r="B28" t="s">
-        <v>582</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="B32" t="s">
+        <v>571</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>322</v>
       </c>
-      <c r="B29" t="s">
-        <v>581</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="B33" t="s">
+        <v>570</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>319</v>
       </c>
-      <c r="B30" t="s">
-        <v>580</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B34" t="s">
+        <v>569</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="9" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B31" t="s">
-        <v>579</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B35" t="s">
+        <v>568</v>
+      </c>
+      <c r="D35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8116,22 +8625,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -8355,22 +8864,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -8394,7 +8903,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -8411,7 +8920,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -8423,7 +8932,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -8432,14 +8941,14 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="B7" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -8447,29 +8956,29 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="B8" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="B9" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -8477,29 +8986,29 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E10" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="11" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="B11" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -8507,29 +9016,29 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="11" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B12" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E12" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="B13" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -8537,13 +9046,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="11" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="B14" t="s">
-        <v>898</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>881</v>
+        <v>879</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>863</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -8554,7 +9063,7 @@
         <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -8565,7 +9074,7 @@
         <v>324</v>
       </c>
       <c r="B16" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
@@ -8577,7 +9086,7 @@
         <v>322</v>
       </c>
       <c r="B17" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
@@ -8589,7 +9098,7 @@
         <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" t="s">
@@ -8604,7 +9113,7 @@
         <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" t="s">
@@ -8623,10 +9132,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -8638,22 +9147,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25" t="s">
-        <v>707</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>692</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="24" t="s">
-        <v>706</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="48.6">
       <c r="A3" s="13" t="s">
@@ -8677,7 +9186,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -8689,10 +9198,10 @@
         <v>350</v>
       </c>
       <c r="G4" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="H4" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8700,17 +9209,17 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="H5" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8718,7 +9227,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -8727,14 +9236,14 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="B7" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -8742,29 +9251,29 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="B8" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="B9" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -8772,29 +9281,29 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="B10" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="B11" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -8802,14 +9311,14 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="B12" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E12" t="s">
         <v>329</v>
@@ -8817,14 +9326,14 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="B13" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -8832,14 +9341,14 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="B14" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="26" t="s">
-        <v>881</v>
+      <c r="D14" s="23" t="s">
+        <v>863</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -8847,14 +9356,14 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="B15" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
@@ -8862,29 +9371,29 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="B16" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E16" t="s">
-        <v>329</v>
+        <v>913</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="B17" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E17" t="s">
         <v>333</v>
@@ -8892,14 +9401,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="B18" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="26" t="s">
-        <v>881</v>
+      <c r="D18" s="23" t="s">
+        <v>863</v>
       </c>
       <c r="E18" t="s">
         <v>328</v>
@@ -8907,14 +9416,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="B19" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E19" t="s">
         <v>333</v>
@@ -8922,29 +9431,29 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="B20" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E20" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>670</v>
+        <v>909</v>
       </c>
       <c r="B21" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E21" t="s">
         <v>333</v>
@@ -8952,27 +9461,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="B22" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E22" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B23" t="s">
-        <v>664</v>
+        <v>916</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E23" t="s">
         <v>333</v>
@@ -8980,78 +9489,138 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B24" t="s">
-        <v>662</v>
+        <v>914</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E24" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="A25" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>915</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="26" t="s">
+        <v>908</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>327</v>
       </c>
-      <c r="B25" t="s">
-        <v>661</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B29" t="s">
+        <v>649</v>
+      </c>
+      <c r="D29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>324</v>
       </c>
-      <c r="B26" t="s">
-        <v>660</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="B30" t="s">
+        <v>648</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>322</v>
       </c>
-      <c r="B27" t="s">
-        <v>659</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="B31" t="s">
+        <v>647</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>319</v>
       </c>
-      <c r="B28" t="s">
-        <v>658</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" t="s">
+      <c r="B32" t="s">
+        <v>646</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E32" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B29" t="s">
-        <v>657</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" t="s">
+      <c r="B33" t="s">
+        <v>645</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9067,10 +9636,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -9083,22 +9652,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>789</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>788</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>771</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="12" t="s">
@@ -9122,7 +9691,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>787</v>
+        <v>770</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>35</v>
@@ -9139,7 +9708,7 @@
         <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" t="s">
@@ -9151,7 +9720,7 @@
         <v>348</v>
       </c>
       <c r="B6" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" t="s">
@@ -9160,14 +9729,14 @@
     </row>
     <row r="7" spans="1:5" ht="32.4">
       <c r="A7" s="14" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="B7" t="s">
-        <v>783</v>
+        <v>766</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E7" t="s">
         <v>333</v>
@@ -9175,14 +9744,14 @@
     </row>
     <row r="8" spans="1:5" ht="32.4">
       <c r="A8" s="14" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="B8" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="26" t="s">
-        <v>883</v>
+      <c r="D8" s="23" t="s">
+        <v>865</v>
       </c>
       <c r="E8" t="s">
         <v>328</v>
@@ -9190,14 +9759,14 @@
     </row>
     <row r="9" spans="1:5" ht="32.4">
       <c r="A9" s="14" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="B9" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
         <v>333</v>
@@ -9205,14 +9774,14 @@
     </row>
     <row r="10" spans="1:5" ht="32.4">
       <c r="A10" s="14" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="B10" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="26" t="s">
-        <v>883</v>
+      <c r="D10" s="23" t="s">
+        <v>865</v>
       </c>
       <c r="E10" t="s">
         <v>328</v>
@@ -9220,14 +9789,14 @@
     </row>
     <row r="11" spans="1:5" ht="32.4">
       <c r="A11" s="14" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="B11" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
         <v>333</v>
@@ -9235,14 +9804,14 @@
     </row>
     <row r="12" spans="1:5" ht="32.4">
       <c r="A12" s="14" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="B12" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="26" t="s">
-        <v>908</v>
+      <c r="D12" s="23" t="s">
+        <v>889</v>
       </c>
       <c r="E12" t="s">
         <v>328</v>
@@ -9250,14 +9819,14 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="14" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="B13" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E13" t="s">
         <v>333</v>
@@ -9265,14 +9834,14 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="14" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="B14" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="26" t="s">
-        <v>872</v>
+      <c r="D14" s="23" t="s">
+        <v>854</v>
       </c>
       <c r="E14" t="s">
         <v>328</v>
@@ -9280,14 +9849,14 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="14" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="B15" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E15" t="s">
         <v>333</v>
@@ -9295,14 +9864,14 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="14" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="B16" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="26" t="s">
-        <v>872</v>
+      <c r="D16" s="23" t="s">
+        <v>854</v>
       </c>
       <c r="E16" t="s">
         <v>328</v>
@@ -9310,14 +9879,14 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="B17" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E17" t="s">
         <v>333</v>
@@ -9325,14 +9894,14 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="14" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="B18" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E18" t="s">
         <v>329</v>
@@ -9340,14 +9909,14 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="16" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="B19" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E19" t="s">
         <v>333</v>
@@ -9355,14 +9924,14 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="16" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="B20" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E20" t="s">
         <v>329</v>
@@ -9370,14 +9939,14 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="16" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="B21" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E21" t="s">
         <v>333</v>
@@ -9385,13 +9954,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="16" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="B22" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="D22" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E22" t="s">
         <v>329</v>
@@ -9399,13 +9968,13 @@
     </row>
     <row r="23" spans="1:5" ht="32.4">
       <c r="A23" s="14" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="B23" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E23" t="s">
         <v>333</v>
@@ -9413,14 +9982,14 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="14" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="B24" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E24" t="s">
         <v>329</v>
@@ -9428,13 +9997,13 @@
     </row>
     <row r="25" spans="1:5" ht="32.4">
       <c r="A25" s="14" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="B25" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="D25" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E25" t="s">
         <v>333</v>
@@ -9442,14 +10011,14 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="B26" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="C26" s="8"/>
-      <c r="D26" s="26" t="s">
-        <v>872</v>
+      <c r="D26" s="23" t="s">
+        <v>854</v>
       </c>
       <c r="E26" t="s">
         <v>328</v>
@@ -9457,14 +10026,14 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="B27" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E27" t="s">
         <v>333</v>
@@ -9472,14 +10041,14 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="14" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="B28" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E28" t="s">
         <v>329</v>
@@ -9487,14 +10056,14 @@
     </row>
     <row r="29" spans="1:5" ht="32.4">
       <c r="A29" s="14" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="B29" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E29" t="s">
         <v>333</v>
@@ -9502,13 +10071,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="14" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="B30" t="s">
-        <v>906</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>872</v>
+        <v>887</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>854</v>
       </c>
       <c r="E30" t="s">
         <v>328</v>
@@ -9516,13 +10085,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="B31" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="D31" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E31" t="s">
         <v>333</v>
@@ -9530,27 +10099,27 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="14" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="B32" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="D32" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E32" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="32.4">
       <c r="A33" s="14" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="B33" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="D33" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E33" t="s">
         <v>333</v>
@@ -9558,27 +10127,27 @@
     </row>
     <row r="34" spans="1:5" ht="32.4">
       <c r="A34" s="14" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="B34" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="D34" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="E34" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="14" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="B35" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E35" t="s">
         <v>333</v>
@@ -9586,52 +10155,52 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="B36" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="D36" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E36" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="B37" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="D37" t="s">
         <v>360</v>
       </c>
       <c r="E37" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="B38" t="s">
-        <v>907</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>872</v>
+        <v>888</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>854</v>
       </c>
       <c r="E38" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="32.4">
       <c r="A39" s="14" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="B39" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="D39" t="s">
         <v>334</v>
@@ -9642,27 +10211,27 @@
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="B40" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="D40" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E40" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="B41" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="D41" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E41" t="s">
         <v>333</v>
@@ -9670,27 +10239,27 @@
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A42" s="14" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="B42" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="D42" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E42" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="32.4">
       <c r="A43" s="14" t="s">
-        <v>717</v>
+        <v>930</v>
       </c>
       <c r="B43" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="D43" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E43" t="s">
         <v>333</v>
@@ -9698,73 +10267,103 @@
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" customHeight="1">
       <c r="A44" s="14" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="B44" t="s">
-        <v>714</v>
+        <v>932</v>
       </c>
       <c r="D44" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E44" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B45" t="s">
-        <v>712</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B46" t="s">
-        <v>711</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="32.4">
+      <c r="A45" s="28" t="s">
+        <v>931</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.399999999999999" customHeight="1">
+      <c r="A46" s="28" t="s">
+        <v>929</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>934</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="14" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" t="s">
+        <v>696</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B49" t="s">
+        <v>695</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B48" t="s">
-        <v>709</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="B50" t="s">
+        <v>694</v>
+      </c>
+      <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="15" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B49" t="s">
-        <v>708</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="B51" t="s">
+        <v>693</v>
+      </c>
+      <c r="D51" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9796,22 +10395,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>838</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>835</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>818</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -9835,7 +10434,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>822</v>
+        <v>805</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>35</v>
@@ -9846,10 +10445,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="B5" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" t="s">
@@ -9858,10 +10457,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>830</v>
+        <v>813</v>
       </c>
       <c r="B6" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" t="s">
@@ -9870,10 +10469,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="B7" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" t="s">
@@ -9882,10 +10481,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="B8" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" t="s">
@@ -9894,10 +10493,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="B9" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" t="s">
@@ -9906,10 +10505,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="B10" t="s">
-        <v>828</v>
+        <v>811</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" t="s">
@@ -9945,22 +10544,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>849</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="A1" s="36" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="A2" s="35" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -9984,7 +10583,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>35</v>
@@ -9995,25 +10594,25 @@
     </row>
     <row r="5" spans="1:5" ht="36" customHeight="1">
       <c r="A5" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
       <c r="B5" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>829</v>
+        <v>812</v>
       </c>
       <c r="B6" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" t="s">
@@ -10022,10 +10621,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="B7" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" t="s">
@@ -10034,10 +10633,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
       <c r="B8" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" t="s">
@@ -10046,10 +10645,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
       <c r="B9" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" t="s">
@@ -10058,10 +10657,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
       <c r="B10" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" t="s">
@@ -10095,22 +10694,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -10226,22 +10825,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -10276,14 +10875,14 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>801</v>
+        <v>784</v>
       </c>
       <c r="B5" t="s">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" t="s">
-        <v>803</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10446,22 +11045,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -10731,22 +11330,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
@@ -10928,22 +11527,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" ht="48.6">
       <c r="A3" s="2" t="s">
